--- a/dataset/lg/maathru.xlsx
+++ b/dataset/lg/maathru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీపతియైనఁ గాని విధుశేఖరుఁడైన త్రిశూలపాణియై-
 నా పరమేష్ఠియైన గణనాయకుఁడైన రమామృడానులై-
@@ -477,32 +474,29 @@
 ద్దీపనబోధనోక్తులను దెల్పను తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('యై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('ధు', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('డై', 'U'), ('న', 'U'), ('త్రి', '|'), ('శూ', 'U'), ('ల', '|'), ('పా', 'U'), ('ణి', '|'), ('యై', 'U'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('మా', 'U'), ('మృ', '|'), ('డా', 'U'), ('ను', '|'), ('లై', 'U'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కుం', 'U'), ('బొ', '|'), ('లం', 'U'), ('తి', '|'), ('య', '|'), ('యి', '|'), ('నా', 'U'), ('ప', '|'), ('రి', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యో', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('న', '|'), ('బో', 'U'), ('ధ', '|'), ('నో', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('దె', 'U'), ('ల్ప', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>జలరుహనేత్రుఁడైన యల చక్కనిదేవునిబొడ్డుతమ్మిలో-
 పలను జనించి వాగ్వనిత పాలిటి పెన్నిధియో యనంగఁ బెం-
@@ -510,32 +504,29 @@
 క్తులఁ గొనియాడి నాద్యయగు తొయ్యలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('రు', '|'), ('హ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డై', 'U'), ('న', '|'), ('య', '|'), ('ల', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బొ', 'U'), ('డ్డు', '|'), ('త', 'U'), ('మ్మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ను', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్వ', '|'), ('ని', '|'), ('త', '|'), ('పా', 'U'), ('లి', '|'), ('టి', '|'), ('పె', 'U'), ('న్ని', '|'), ('ధి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('బెం', 'U'), ('ప', '|'), ('ల', '|'), ('రి', '|'), ('న', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('ని', '|'), ('నా', 'U'), ('ది', '|'), ('మ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('త్ర', '|'), ('యీ', 'U'), ('మ', '|'), ('యో', 'U'), ('క్తు', '|'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డి', '|'), ('నా', 'U'), ('ద్య', '|'), ('య', '|'), ('గు', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>చిఱుతతనంబునన్ జెలులఁ జేరి విహారము సల్పువేళ నా-
 దరమునఁ గొయ్యబొమ్మను ముదంబునఁ బుత్రునిగాఁ దలంచి తాఁ
@@ -543,32 +534,29 @@
 మురిపముఁ గాంచి మోహమున నూల్కొను తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జె', '|'), ('లు', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పు', '|'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గొ', 'U'), ('య్య', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('బు', 'U'), ('త్రు', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('మొం', 'U'), ('ది', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('నె', '|'), ('పం', 'U'), ('బి', '|'), ('డి', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('గాం', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ల్కొ', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>బాలలఁ గూడి బొమ్మ నొడిపైఁ గడుఁబ్రేమ చెలంగ నిల్పి తా-
 నోలలు పాడుచున్ బొదలి యుగ్గిడి కేలను మేను దువ్వుచోఁ
@@ -576,32 +564,29 @@
 కాల మటంచు నెంచు మదిఁ గల్గిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ల', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('నొ', '|'), ('డి', '|'), ('పై', 'U'), ('గ', '|'), ('డు', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('ని', 'U'), ('ల్పి', '|'), ('తా', 'U'), ('నో', 'U'), ('ల', '|'), ('లు', '|'), ('పా', 'U'), ('డు', '|'), ('చున్', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('యు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('కే', 'U'), ('ల', '|'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చో', 'U'), ('జా', 'U'), ('ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('గా', 'U'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('కా', 'U'), ('ల', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>ఇలఁ గల దేవతాతతులనెల్ల మనంబున నెంచి నామముల్
 పలుమఱు నోటఁ బల్కుచును బార్వతి గేహముఁ జొచ్చి శాంభవీ-
@@ -609,32 +594,29 @@
 వలెనని మ్రొక్కి వేఁడు సుతవాంఛకుఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నెం', 'U'), ('చి', '|'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('నో', 'U'), ('ట', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ను', '|'), ('బా', 'U'), ('ర్వ', '|'), ('తి', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('శాం', 'U'), ('భ', '|'), ('వీ', 'U'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', 'U'), ('ప్ర', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మిం', 'U'), ('క', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డు', '|'), ('సు', '|'), ('త', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కు', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>చిలుకలు లేని పంజరము శీతమయూఖుఁడు లేని రాత్రి చెం-
 గలువలు లేని పెంగొలను గాదె పరేహసుఖప్రదానని-
@@ -642,32 +624,29 @@
 ల్చెలువమదేల యంచు మదిఁ జింతిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('రా', 'U'), ('త్రి', '|'), ('చెం', 'U'), ('గ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పెం', 'U'), ('గొ', '|'), ('ల', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('రే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('న', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నా', 'U'), ('ద', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('కు', '|'), ('నిం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('మే', 'U'), ('ల్చె', '|'), ('లు', '|'), ('వ', '|'), ('మ', '|'), ('దే', 'U'), ('ల', '|'), ('యం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జిం', 'U'), ('తి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>సుతులను గన్నయట్టి నెఱసుందరులం గని భాగ్యభోగసం-
 గతమతులార నందనులు గల్గుటకున్ దిటమార నేమి నోఁ-
@@ -675,32 +654,29 @@
 గుతుక మెలర్పఁగా నడుగు కోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నె', '|'), ('ఱ', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('భా', 'U'), ('గ్య', '|'), ('భో', 'U'), ('గ', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('మ', '|'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కున్', 'U'), ('ది', '|'), ('ట', '|'), ('మా', 'U'), ('ర', '|'), ('నే', 'U'), ('మి', '|'), ('నో', 'U'), ('చి', '|'), ('తి', '|'), ('రొ', '|'), ('త', '|'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('మి', '|'), ('మ', '|'), ('ఱి', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('రో', 'U'), ('య', '|'), ('ని', '|'), ('పు', 'U'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>పొరుగిరుగిండ్ల భామినులు పుత్రులు గల్గుట కాత్మతత్త్వసు-
 స్థిరమతిఁ జేయు సాధనముఁ జెప్పిన య ట్లుపవాసదేవతా-
@@ -708,32 +684,29 @@
 జిఱుతల మీఁది యాశ మదిఁ జేడ్పడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('రు', '|'), ('గి', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('పు', 'U'), ('త్రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కా', 'U'), ('త్మ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('యు', '|'), ('గా', 'U'), ('ర్చ', '|'), ('న', 'U'), ('ప్ర', '|'), ('భృ', '|'), ('తి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('దా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('ది', '|'), ('జే', 'U'), ('డ్ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>తనయుని మీఁది బాళి మదిఁ దాఁకినచో నుపవాస మీశ్వరా-
 ర్చనమును నోములాదియగు సత్క్రియలెల్లను జేయుచో నెదం
@@ -741,32 +714,29 @@
 మ్మనమున నాస పాల్పడని మానినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('మీ', 'U'), ('ది', '|'), ('బా', 'U'), ('ళి', '|'), ('మ', '|'), ('ది', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('చో', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లా', 'U'), ('ది', '|'), ('య', '|'), ('గు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('దం', 'U'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('న', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('మై', 'U'), ('నొ', '|'), ('గి', '|'), ('ద', '|'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('నో', 'U'), ('ర్చు', '|'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మే', 'U'), ('మి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('ని', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>సేతువులో మునుంగు నతిశేముషి దీనుల నన్నదానసం-
 ప్రీతులఁ జేయు దేవతలఁ బేర్కొను నైదువరాండ్ర కెల్లన-
@@ -774,32 +744,29 @@
 నేతఱి నోమునోఁచుఁ దనయేచ్ఛను దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('సే', 'U'), ('తు', '|'), ('వు', '|'), ('లో', 'U'), ('ము', '|'), ('నుం', 'U'), ('గు', '|'), ('న', '|'), ('తి', '|'), ('శే', 'U'), ('ము', '|'), ('షి', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('సం', 'U'), ('ప్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('నై', 'U'), ('దు', '|'), ('వ', '|'), ('రాం', 'U'), ('డ్ర', '|'), ('కె', 'U'), ('ల్ల', '|'), ('న', 'U'), ('య్యే', 'U'), ('త', '|'), ('ని', '|'), ('వా', 'U'), ('రు', '|'), ('వా', 'U'), ('య', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('దా', 'U'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('నో', 'U'), ('ము', '|'), ('నో', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('యే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>మోద మెలర్పఁగా దనయమోహము చేతను బిప్పలద్రు నా-
 గాది ప్రతిష్ఠలెల్ల జనులందఱు సంతసమందఁ జేయుచో,
@@ -807,32 +774,29 @@
 పాదన జేయుచో నెపుడుఁ బల్కెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('య', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('బి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ద్రు', '|'), ('నా', 'U'), ('గా', 'U'), ('ది', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('బే', 'U'), ('ద', '|'), ('ఱి', '|'), ('కం', 'U'), ('బ', '|'), ('దెం', 'U'), ('త', '|'), ('మ', '|'), ('ఱి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నా', 'U'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>ఇలఁ బెఱవారినందనుల నెత్తుచు ముద్దిడుచోఁ బెనంగి య-
 న్నులఁ గని బిడ్డలెన్నటికినో కననోఁతు నటంచు బల్కి లే-
@@ -840,32 +804,29 @@
 దలఁచుచు బుత్రవాంఛ మతిఁ దాఁకిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('బె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ల', '|'), ('నె', 'U'), ('త్తు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చో', 'U'), ('బె', '|'), ('నం', 'U'), ('గి', '|'), ('య', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లె', 'U'), ('న్న', '|'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('క', '|'), ('న', '|'), ('నో', 'U'), ('తు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('లే', 'U'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('జెం', 'U'), ('దు', '|'), ('చు', '|'), ('ని', 'U'), ('ష్ట', '|'), ('దై', 'U'), ('వ', '|'), ('మున్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('బు', 'U'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>తనయుల బాళి మ్రుగ్గులిడుఁ దాలిమి మీఱఁగ నెవ్వరేమి చె-
 ప్పిన నది సేయుచుండు నిలవేల్పులకున్‍ మఱి మీఁదు గట్టు దా-
@@ -873,32 +834,29 @@
 తన నొకకాలమైన మదిఁ దప్పని తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ల', '|'), ('బా', 'U'), ('ళి', '|'), ('మ్రు', 'U'), ('గ్గు', '|'), ('లి', '|'), ('డు', '|'), ('దా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('న', '|'), ('ది', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కున్', 'U'), ('మ', '|'), ('ఱి', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('ర్భ', '|'), ('హే', 'U'), ('తు', '|'), ('వి', '|'), ('వి', '|'), ('ధౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ముల్', 'U'), ('ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('చిం', 'U'), ('త', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>అనయము నందనేచ్ఛ హృదయంబున మల్లడిసేయ మీనలో-
 చన నిలయంబులో నిలిచి షణ్ముఖునిం జెలువారఁ గన్న యో
@@ -906,32 +864,29 @@
 మునుకొని సాగిలం బడుచు మ్రొక్కెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ల్ల', '|'), ('డి', '|'), ('సే', 'U'), ('య', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖు', '|'), ('నిం', 'U'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('ర', '|'), ('గ', 'U'), ('న్న', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ని', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నె', 'U'), ('మ్మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గా', 'U'), ('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('సా', 'U'), ('గి', '|'), ('లం', 'U'), ('బ', '|'), ('డు', '|'), ('చు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>మునుకొని తాను బెద్దలకు మ్రొక్కిన వారును బ్రేమఁ బుత్రులం
 గనుఁగొని సర్వకాలము సుఖంబున నుండుదు వీ వటంచు దీ-
@@ -939,32 +894,29 @@
 మ్మనమున జాల సంతసిలు మానినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('తా', 'U'), ('ను', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ను', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('బు', 'U'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('వీ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('హీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ఎఱుకులసానిగద్దె విననెంచు మనోరథ ముప్పతిల్లఁగాఁ,
 గరగతలేఖ లూర్జితముగాఁ గని పెద్దలు నీకుఁ బుత్రులే-
@@ -972,32 +924,29 @@
 ప్పిరిగొన సంతసిల్లి మది బేర్చెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('ఱు', '|'), ('కు', '|'), ('ల', '|'), ('సా', 'U'), ('ని', '|'), ('గ', 'U'), ('ద్దె', '|'), ('వి', '|'), ('న', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గ', '|'), ('త', '|'), ('లే', 'U'), ('ఖ', '|'), ('లూ', 'U'), ('ర్జి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', 'U'), ('త్రు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('గ', '|'), ('ల', '|'), ('ర', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ర', '|'), ('ట', '|'), ('దో', 'U'), ('ప', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('లో', 'U'), ('న', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('గొ', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('బే', 'U'), ('ర్చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>నెల నిలిచెం గదే యనుచు నీరజపాణులు పల్కునంతలో-
 పల నిధిఁ గన్నయ ట్లుదరభాగములోపలఁ బిండ ముష్ణమున్
@@ -1005,32 +954,29 @@
 త్యురుతరభంగిఁ గొల్పు వగనుండెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లి', '|'), ('చెం', 'U'), ('గ', '|'), ('దే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('పా', 'U'), ('ణు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ద', '|'), ('ర', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బిం', 'U'), ('డ', '|'), ('ము', 'U'), ('ష్ణ', '|'), ('మున్', 'U'), ('దొ', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('ధుల్', 'U'), ('మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('బు', 'U'), ('త్ర', '|'), ('మో', 'U'), ('హ', '|'), ('మ', 'U'), ('త్యు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భం', 'U'), ('గి', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('వ', '|'), ('గ', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>వేవిళు లోఁకిరింతలును విన్నఁదనంబును దోఁప డస్సి గ-
 ర్భావరణార్భకావనశుభక్రమ మొప్పఁగ మంత్రతంత్రసం-
@@ -1038,32 +984,29 @@
 దైవము తోడు గావలె సదా’ యను తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('వి', '|'), ('ళు', '|'), ('లో', 'U'), ('కి', '|'), ('రిం', 'U'), ('త', '|'), ('లు', '|'), ('ను', '|'), ('వి', 'U'), ('న్న', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దో', 'U'), ('ప', '|'), ('డ', 'U'), ('స్సి', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('శు', '|'), ('భ', 'U'), ('క్ర', '|'), ('మ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('సం', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మాం', 'U'), ('త్రి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('బు', 'U'), ('త్ర', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కిన్', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('స', '|'), ('దా', 'U'), ('య', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>నెల నిలువన్ మనోరథము నివ్వటిలంగను బైఁడిరక్ష రే-
 కులు మెడఁగట్టు మోమునను గోరిక మీఱ విభూతిఁ బెట్టు దా-
@@ -1071,32 +1014,29 @@
 చెలువున నుత్తమక్రియలు చేసెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లు', '|'), ('వన్', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', '|'), ('ని', 'U'), ('వ్వ', '|'), ('టి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('బై', 'U'), ('డి', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('లు', '|'), ('మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('బె', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('గా', 'U'), ('లి', '|'), ('సో', 'U'), ('కె', '|'), ('డు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కీ', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('న', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', 'U'), ('క్రి', '|'), ('య', '|'), ('లు', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>చెలు లిటు రమ్మటంచుఁ దనుఁ జీఱిన వేసట గర్భగోళసం-
 కలితసుతావనేచ్ఛఁ జనఁగా మఱి యూహఁ దొలంగు దేహళీ-
@@ -1104,32 +1044,29 @@
 గలక దలంగి తా నడచు కామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('లి', '|'), ('టు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ద', '|'), ('ను', '|'), ('జీ', 'U'), ('ఱి', '|'), ('న', '|'), ('వే', 'U'), ('స', '|'), ('ట', '|'), ('గ', 'U'), ('ర్భ', '|'), ('గో', 'U'), ('ళ', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('సు', '|'), ('తా', 'U'), ('వ', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('జ', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('యూ', 'U'), ('హ', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('దే', 'U'), ('హ', '|'), ('ళీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నె', '|'), ('గ', '|'), ('దా', 'U'), ('ట', '|'), ('నే', 'U'), ('ర', '|'), ('న', '|'), ('ని', '|'), ('త', 'U'), ('గ్గు', '|'), ('లు', '|'), ('మి', 'U'), ('ఱ్ఱు', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('తి', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('క', '|'), ('ద', '|'), ('లం', 'U'), ('గి', '|'), ('తా', 'U'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>మాసములెల్లఁ బూర్ణమయి మానవతీమణి గర్భవేదనా-
 యాసముతోడ నుండుతఱి నంగన పుత్రునిఁ గాంచె నన్నుఁ దా-
@@ -1137,32 +1074,29 @@
 రాసమమైనచో మనము రంజిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('యి', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('గ', 'U'), ('ర్భ', '|'), ('వే', 'U'), ('ద', '|'), ('నా', 'U'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నుం', 'U'), ('డు', '|'), ('త', '|'), ('ఱి', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('పు', 'U'), ('త్రు', '|'), ('ని', '|'), ('గాం', 'U'), ('చె', '|'), ('న', 'U'), ('న్ను', '|'), ('దా', 'U'), ('నా', 'U'), ('స', '|'), ('డి', '|'), ('వి', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బ', '|'), ('మృ', '|'), ('త', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ధా', 'U'), ('రా', 'U'), ('స', '|'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>విసుకుచు బిడ్డనుం గనిన వేదనఁ గుందుచు నున్నయప్పు డా
 నిసుపును దెచ్చి పొత్తులను నించినచోఁ దన కష్టరీతులన్
@@ -1170,32 +1104,29 @@
 మసమునఁ బ్రోచు నేర్పుగల మానిని దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('సు', '|'), ('కు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నుం', 'U'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('ని', '|'), ('సు', '|'), ('పు', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('రీ', 'U'), ('తు', '|'), ('లన్', 'U'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('త', 'U'), ('త్సు', '|'), ('తా', 'U'), ('వ', '|'), ('న', '|'), ('వి', '|'), ('మ', 'U'), ('ర్శ', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('జిం', 'U'), ('దు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('న', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('గ', '|'), ('ల', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>చిఱుత జనించునంతఁ దన చిత్తము సార్థకమై చెలంగిన-
 ట్లురుతరభాగ్య మబ్బినటు లుర్వి సమస్తము నేలినట్లు పెం-
@@ -1203,32 +1134,29 @@
 బ్బురముగ సంతసిల్లు విరిబోఁడిని దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('జ', '|'), ('నిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('సా', 'U'), ('ర్థ', '|'), ('క', '|'), ('మై', 'U'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', '|'), ('టు', '|'), ('లు', 'U'), ('ర్వి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పెం', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గె', 'U'), ('ల్చు', '|'), ('చో', 'U'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('తూ', 'U'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లె', '|'), ('డ', '|'), ('నా', 'U'), ('టి', '|'), ('న', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>పురిటిలు సొచ్చి యున్నతఱిఁ బుత్రునకున్ వివిధోపచారముల్
 మెఱవడి చేయువారలను మిక్కిలి ప్రార్థన చేసి దేవతా-
@@ -1236,32 +1164,29 @@
 తురమున నేమి చెప్పవలెఁ దొయ్యలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రి', '|'), ('టి', '|'), ('లు', '|'), ('సొ', 'U'), ('చ్చి', '|'), ('యు', 'U'), ('న్న', '|'), ('త', '|'), ('ఱి', '|'), ('బు', 'U'), ('త్రు', '|'), ('న', '|'), ('కున్', 'U'), ('వి', '|'), ('వి', '|'), ('ధో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('చే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ను', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', 'U'), ('ప్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('య', 'U'), ('ట్లు', '|'), ('చూ', 'U'), ('చు', '|'), ('నె', '|'), ('ఱ', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('దొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>తన కుపచారముల్ జరుపు తామరసాక్షులఁ జూచి బిడ్డ కిం-
 పొనరఁగ బోరుమాన్పి చెలువొందఁగ నుగ్గిడరమ్మ మీరలే
@@ -1269,32 +1194,29 @@
 రని తనయావనక్రియల రంజిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కిం', 'U'), ('పొ', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('రు', '|'), ('మా', 'U'), ('న్పి', '|'), ('చె', '|'), ('లు', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', '|'), ('ను', 'U'), ('గ్గి', '|'), ('డ', '|'), ('ర', 'U'), ('మ్మ', '|'), ('మీ', 'U'), ('ర', '|'), ('లే', 'U'), ('ది', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('దే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బి', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వ', '|'), ('న', 'U'), ('క్రి', '|'), ('య', '|'), ('ల', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ప్రమదము మీఱఁ గన్న యల బాలునకై యొకవేళఁ బక్షిదో-
 షమొనరు దృష్టి సోఁకు గ్రహసంసరణంబును గాలి ముట్టు దో-
@@ -1302,32 +1224,29 @@
 గమునను రక్షరేకు మొలఁ గట్టెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('యొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', 'U'), ('క్షి', '|'), ('దో', 'U'), ('ష', '|'), ('మొ', '|'), ('న', '|'), ('రు', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('సో', 'U'), ('కు', 'U'), ('గ్ర', '|'), ('హ', '|'), ('సం', 'U'), ('స', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('గా', 'U'), ('లి', '|'), ('ము', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('మొ', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>పురుడు చనంగ జాతకపుఁ బొంక మెఱింగినయట్టి పెద్ద లా-
 దరమున దీర్ఘకాలము ముదంబున మీనవిలోచనాతివి-
@@ -1335,32 +1254,29 @@
 ల్వరలు నటన్న మాట విన వాంఛిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('డు', '|'), ('చ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('పు', '|'), ('బొం', 'U'), ('క', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('ర్ఘ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('న', '|'), ('వి', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('తి', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చుం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('త్మ', '|'), ('జుం', 'U'), ('డు', '|'), ('బ', 'U'), ('ల్వ', '|'), ('ర', '|'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>నెలపురు డీఁగుదాఁక బలునే ర్పలరారను మూలయింటిలో-
 పలఁ బరు లెవ్వరేని తన పట్టినిఁ జూచిన దృష్టి దాఁకు ని-
@@ -1368,32 +1284,29 @@
 తుల పయిఁగాఁపుగా నిడిన తొయ్యలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ల', '|'), ('పు', '|'), ('రు', '|'), ('డీ', 'U'), ('గు', '|'), ('దా', 'U'), ('క', '|'), ('బ', '|'), ('లు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('ను', '|'), ('మూ', 'U'), ('ల', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ', '|'), ('రు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దా', 'U'), ('కు', '|'), ('ని', 'U'), ('మ్ము', '|'), ('ల', '|'), ('న', '|'), ('ని', '|'), ('దా', 'U'), ('చి', '|'), ('గా', 'U'), ('లి', '|'), ('తె', '|'), ('ఱ', '|'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('పెం', 'U'), ('పు', '|'), ('టిం', 'U'), ('తు', '|'), ('ల', '|'), ('ప', '|'), ('యి', '|'), ('గా', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>కారము నూరిపోయు నెడ గాసిలనీయదు బోరుబెట్టినన్
 గూరిమితోడ నెత్తుకొని గుబ్బల పాలిడు జోలఁ బాడు స-
@@ -1401,32 +1314,29 @@
 లారతి నాఁటనాఁట నిటుల న్మదిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నూ', 'U'), ('రి', '|'), ('పో', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('ల', '|'), ('నీ', 'U'), ('య', '|'), ('దు', '|'), ('బో', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పా', 'U'), ('లి', '|'), ('డు', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చో', 'U'), ('గ', '|'), ('సు', '|'), ('రు', '|'), ('దా', 'U'), ('కె', '|'), ('న', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('కుం', 'U'), ('దు', '|'), ('బు', 'U'), ('త్ర', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('తి', '|'), ('నా', 'U'), ('ట', '|'), ('నా', 'U'), ('ట', '|'), ('ని', '|'), ('టు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>తన పొరుగిండ్ల భామినులు తారసిలంగను దృష్టి తాఁకునో
 యని మిహిరాదిక గ్రహచయాభిమతు ల్పచరించి మీనలో-
@@ -1434,32 +1344,29 @@
 జనని యటంచు నంజలులు సల్పెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ర', '|'), ('సి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మి', '|'), ('హి', '|'), ('రా', 'U'), ('ది', '|'), ('క', 'U'), ('గ్ర', '|'), ('హ', '|'), ('చ', '|'), ('యా', 'U'), ('భి', '|'), ('మ', '|'), ('తు', 'U'), ('ల్ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('య', '|'), ('క', 'U'), ('ప్రో', 'U'), ('వ', '|'), ('వ', 'U'), ('మ్మ', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నం', 'U'), ('జ', '|'), ('లు', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>పెనఁకువ మీఱునంతఁ దన బిడ్డపయిం గలయట్టి బాళిచే-
 తను మలమూత్రము ల్గడుముదంబున నెమ్మెయిఁ బూసినట్టి చం-
@@ -1467,32 +1374,29 @@
 ద్రునిఁ గనినట్లు బొంగు భళిరే యల తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్గ', '|'), ('డు', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('బూ', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('హి', '|'), ('మ', '|'), ('నీ', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ర', '|'), ('భ', '|'), ('ము', '|'), ('దా', 'U'), ('రి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('న్వ', '|'), ('యా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('బొం', 'U'), ('గు', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ల', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>అనుదిన మాత్మసంభవున కాముద ముగ్గిడు నంతమీఁద లో-
 చనములు ముక్కు పెందొడలు చంకలు కాళ్లును చేతు లాదిగాఁ
@@ -1500,32 +1404,29 @@
 ర్పున నలరారుచున్న ననబోణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('మా', 'U'), ('త్మ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కా', 'U'), ('ము', '|'), ('ద', '|'), ('ము', 'U'), ('గ్గి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('మీ', 'U'), ('ద', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('క్కు', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('లు', '|'), ('చం', 'U'), ('క', '|'), ('లు', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('ను', '|'), ('చే', 'U'), ('తు', '|'), ('లా', 'U'), ('ది', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('యు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>పిడికిలి పట్టువేళఁ దనుఁ బేర్కొని నవ్వెడువేళ నోరలం
 బడియెడువేళ నూకురులు పల్కెడివేళను దోఁగులాడుటన్
@@ -1533,32 +1434,29 @@
 గడలుకొనంగ సంతసిలు కామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('పి', '|'), ('డి', '|'), ('కి', '|'), ('లి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('వే', 'U'), ('ళ', '|'), ('ద', '|'), ('ను', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నో', 'U'), ('ర', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('యె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నూ', 'U'), ('కు', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('ను', '|'), ('దో', 'U'), ('గు', '|'), ('లా', 'U'), ('డు', '|'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('బల్', 'U'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>బాలుని వృద్ధికై యొరులు పల్కినయట్టుల నెంత ద్రవ్యమై-
 నా లవమాత్ర మంచుఁ దన నాథునకున్ దెలియంగఁ బల్కుచున్
@@ -1566,32 +1464,29 @@
 బోలినయట్టులుండు ననబోణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('లు', '|'), ('ని', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('యొ', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('ల', '|'), ('నెం', 'U'), ('త', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మై', 'U'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('మా', 'U'), ('త్ర', '|'), ('మం', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('నా', 'U'), ('థు', '|'), ('న', '|'), ('కున్', 'U'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చున్', 'U'), ('లీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('యో', 'U'), ('గు', '|'), ('లం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>మన మతిప్రీతి నొంద నొకమంచిముహూర్తముఁ జూచినంతఁ దా-
 ననువమరంగ రంగలరు నన్నము ముట్టఁగఁ జేసి బిడ్డఁ డిం-
@@ -1599,32 +1494,29 @@
 యని మది నూహ పాల్పడిన యంగనఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('మ', '|'), ('తి', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('ద', '|'), ('నొ', '|'), ('క', '|'), ('మం', 'U'), ('చి', '|'), ('ము', '|'), ('హూ', 'U'), ('ర్త', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('ను', '|'), ('వ', '|'), ('మ', '|'), ('రం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('న', 'U'), ('న్న', '|'), ('ము', '|'), ('ము', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డిం', 'U'), ('పె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('క', '|'), ('టం', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('నం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('నూ', 'U'), ('హ', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('న', '|'), ('యం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>చెలు లుదకంబు దేరఁ దన చేతను నూనియఁ దోఁగ నంటుచోఁ
 దల జలకంబు లార్చి బలుతాలిమితోఁ దడి యొత్తి మోమునన్
@@ -1632,32 +1524,29 @@
 పల నలరారుచున్న యల భామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('లు', '|'), ('ద', '|'), ('కం', 'U'), ('బు', '|'), ('దే', 'U'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('నూ', 'U'), ('ని', '|'), ('య', '|'), ('దో', 'U'), ('గ', '|'), ('నం', 'U'), ('టు', '|'), ('చో', 'U'), ('ద', '|'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్చి', '|'), ('బ', '|'), ('లు', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('ద', '|'), ('డి', '|'), ('యొ', 'U'), ('త్తి', '|'), ('మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ది', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('చు', 'U'), ('క్క', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('లె', '|'), ('దీ', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>ఇంతులఁ జూచి మీ సుతుల కే పస రుగ్గిడినారు మీరు గో-
 రంత యెఱుంగఁ బల్కఁగదరమ్మ యటంచుఁ జికిత్స దోఁప నిం-
@@ -1665,32 +1554,29 @@
 న్వంతరియో యనంగఁ జెలువారెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('తు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('మీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('స', '|'), ('రు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('నా', 'U'), ('రు', '|'), ('మీ', 'U'), ('రు', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్క', '|'), ('గ', '|'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('జి', '|'), ('కి', 'U'), ('త్స', '|'), ('దో', 'U'), ('ప', '|'), ('నిం', 'U'), ('తం', 'U'), ('త', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ము', '|'), ('లా', 'U'), ('ర', '|'), ('యు', '|'), ('చున్', 'U'), ('గ', '|'), ('డు', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ధ', 'U'), ('న్వం', 'U'), ('త', '|'), ('రి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>భావ మెలర్ప మూలికల భావన చేసినయట్టి బంగరుం
 దీవెల నూకచిట్టుడుకు దీసి మరీచిఘృతోచితంబుగాఁ
@@ -1698,32 +1584,29 @@
 బోవఁగ జోలఁ బాడుచును బొంగెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('వ', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('మూ', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('దీ', 'U'), ('వె', '|'), ('ల', '|'), ('నూ', 'U'), ('క', '|'), ('చి', 'U'), ('ట్టు', '|'), ('డు', '|'), ('కు', '|'), ('దీ', 'U'), ('సి', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('ఘృ', '|'), ('తో', 'U'), ('చి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('వే', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధా', 'U'), ('ర', '|'), ('ల', '|'), ('మే', 'U'), ('ను', '|'), ('గ', '|'), ('డిం', 'U'), ('గి', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>క్షీరము శర్కరాన్నమును జిక్కని గట్టిపెరుంగు పాయసం-
 బారయ బొజ్జ నిండునటు లామెతగాఁ దినిపించి బిడ్డఁ డే-
@@ -1731,32 +1614,29 @@
 రార” యటంచుఁ బిల్చుచును రాజిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('క్షీ', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('ర్క', '|'), ('రా', 'U'), ('న్న', '|'), ('ము', '|'), ('ను', '|'), ('జి', 'U'), ('క్క', '|'), ('ని', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పె', '|'), ('రుం', 'U'), ('గు', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మె', '|'), ('త', '|'), ('గా', 'U'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మో', 'U'), ('ర', '|'), ('హి', '|'), ('లే', 'U'), ('క', '|'), ('ము', 'U'), ('ట్ట', '|'), ('డ', '|'), ('ని', '|'), ('మో', 'U'), ('మ', '|'), ('ఱ', '|'), ('వాం', 'U'), ('చు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', 'U'), ('య్య', '|'), ('గా', 'U'), ('రా', 'U'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్చు', '|'), ('చు', '|'), ('ను', '|'), ('రా', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>చిఱుతను జంకఁ బెట్టుకొని చిత్రముఁ జూపుచు వెండిగిన్నెలో
 మెఱయుచునున్న బువ్వఁ దినుమీ తినకున్నను బూచివాని వే-
@@ -1764,32 +1644,29 @@
 బిరబిర చేతిముద్దఁ దినిపించెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('ము', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('వెం', 'U'), ('డి', '|'), ('గి', 'U'), ('న్నె', '|'), ('లో', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('ను', '|'), ('మీ', 'U'), ('తి', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('బూ', 'U'), ('చి', '|'), ('వా', 'U'), ('ని', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మి', '|'), ('దె', '|'), ('పి', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ళి', '|'), ('కిం', 'U'), ('చు', '|'), ('చు', '|'), ('గా', 'U'), ('కి', '|'), ('కి', '|'), ('వే', 'U'), ('తు', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('బి', '|'), ('ర', '|'), ('బి', '|'), ('ర', '|'), ('చే', 'U'), ('తి', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>అరమర మానుచున్ గురుపదార్థము లెవ్వి భుజించితేని పా-
 లరుగవు బిడ్డకంచు విహితాశనముం గబళించుచోఁ బరా-
@@ -1797,32 +1674,29 @@
 స్ఫురణఁ జెలంగుచున్న యిలసుందరిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చున్', 'U'), ('గు', '|'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లె', 'U'), ('వ్వి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('తే', 'U'), ('ని', '|'), ('పా', 'U'), ('ల', '|'), ('రు', '|'), ('గ', '|'), ('వు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కం', 'U'), ('చు', '|'), ('వి', '|'), ('హి', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ముం', 'U'), ('గ', '|'), ('బ', '|'), ('ళిం', 'U'), ('చు', '|'), ('చో', 'U'), ('బ', '|'), ('రా', 'U'), ('త్ప', '|'), ('రు', '|'), ('ని', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('ల', 'U'), ('ట్లు', '|'), ('సు', '|'), ('త', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టు', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ప', 'U'), ('థ్య', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('యి', '|'), ('ల', '|'), ('సుం', 'U'), ('ద', '|'), ('రి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>ఆఁకొని పోరువెట్టునెడ నారయ నడ్డముగాఁ దనూజునిం
 జేకొని క్రుచ్చి ముద్దిడుచుఁ జెక్కిలి దువ్వుచుఁ “బాయి ద్రావ రా-
@@ -1830,32 +1704,29 @@
 క్షాకలితోక్తిఁ జన్గుడుపు కామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('నె', '|'), ('డ', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('డ్డ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('నిం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చు', '|'), ('జె', 'U'), ('క్కి', '|'), ('లి', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చు', '|'), ('బా', 'U'), ('యి', '|'), ('ద్రా', 'U'), ('వ', '|'), ('రా', 'U'), ('రా', 'U'), ('క', '|'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('యం', 'U'), ('చ', '|'), ('ని', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('క', '|'), ('లి', '|'), ('తో', 'U'), ('క్తి', '|'), ('జ', 'U'), ('న్గు', '|'), ('డు', '|'), ('పు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>తడఁబడునట్లు ముంగిటను దప్పుటడుం గిడువేళ నజ్ఞతన్
 బడునను చింతయు న్నడువఁ బాల్పడెనన్న కుతూహలంబు చే-
@@ -1863,32 +1734,29 @@
 ర్పడరఁగ ద్రిప్పుచో శుభముఁ బల్కెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ముం', 'U'), ('గి', '|'), ('ట', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('జ్ఞ', '|'), ('తన్', 'U'), ('బ', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('చిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్న', '|'), ('డు', '|'), ('వ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డె', '|'), ('న', 'U'), ('న్న', '|'), ('కు', '|'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', '|'), ('చే', 'U'), ('డ్ప', '|'), ('డ', '|'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కున్', 'U'), ('ద', '|'), ('న', 'U'), ('వ్రే', 'U'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>తన సరిబాలురం గలసి దవ్వుల కాటల కేగియున్నచోఁ
 దనయుఁ డిదేమొ లేఁడనుచుఁ దత్తఱ మొందుచు నావ తాగిన-
@@ -1896,32 +1764,29 @@
 కొని కనినంత సంతసిలు కోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('బా', 'U'), ('లు', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కా', 'U'), ('ట', '|'), ('ల', '|'), ('కే', 'U'), ('గి', '|'), ('యు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డి', '|'), ('దే', 'U'), ('మొ', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ద', 'U'), ('త్త', '|'), ('ఱ', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('నా', 'U'), ('వ', '|'), ('తా', 'U'), ('గి', '|'), ('న', 'U'), ('ట్ల', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('త్మ', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ద', '|'), ('దా', 'U'), ('గ', '|'), ('మ', '|'), ('నా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('క', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>చిఱుతలతోడ నాటలకుఁ జేతులు జాచుచు సందుగొందులం
 బరుగులు పారుచున్న పశుబాధ ఘటించునటంచు సాధ్వసా-
@@ -1929,32 +1794,29 @@
 బురుకనిఁ గేల నందికొనిపోయెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('నా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('జా', 'U'), ('చు', '|'), ('చు', '|'), ('సం', 'U'), ('దు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('బ', '|'), ('రు', '|'), ('గు', '|'), ('లు', '|'), ('పా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('ప', '|'), ('శు', '|'), ('బా', 'U'), ('ధ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('సా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('ణి', '|'), ('వా', 'U'), ('స', '|'), ('మ', '|'), ('టు', '|'), ('ద్రో', 'U'), ('సి', '|'), ('బ', '|'), ('హి', 'U'), ('స్థ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('యం', 'U'), ('త', '|'), ('నా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గే', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('యె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>కడువడి నెందఱిన్ గనినఁగాని తనూజులు చెంతఁ జేరి పైఁ-
 బడి మురిపంపుఁ బెంపు నెఱబాధలు పెట్టినఁగాని వేసటం
@@ -1962,32 +1824,29 @@
 బొడమి చరించుచుండు విరిబోణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱిన్', 'U'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('లు', '|'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('రి', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('ము', '|'), ('రి', '|'), ('పం', 'U'), ('పు', '|'), ('బెం', 'U'), ('పు', '|'), ('నె', '|'), ('ఱ', '|'), ('బా', 'U'), ('ధ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వే', 'U'), ('స', '|'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('ని', '|'), ('తో', 'U'), ('ధి', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('గ', 'U'), ('న్వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('బా', 'U'), ('ళి', '|'), ('లో', 'U'), ('బొ', '|'), ('డ', '|'), ('మి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>వినవినఁ బాలు గాఱు నెఱవేడుక మీఱఁగ ముద్దుముద్దుగాఁ
 దనయుఁడు పల్కుచున్న విని తాఁ గనకం బొడిఁ గట్టినట్లు నె-
@@ -1995,32 +1854,29 @@
 జను గుడిపించి మై నివురు చక్కని తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('న', '|'), ('వి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ఱు', '|'), ('నె', '|'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('చు', 'U'), ('న్న', '|'), ('వి', '|'), ('ని', '|'), ('తా', 'U'), ('గ', '|'), ('న', '|'), ('కం', 'U'), ('బొ', '|'), ('డి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('ను', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దీ', 'U'), ('యు', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('గు', '|'), ('డి', '|'), ('పిం', 'U'), ('చి', '|'), ('మై', 'U'), ('ని', '|'), ('వు', '|'), ('రు', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>గునగున నేగుదెంచి తనకు న్మఱి పప్పు లొసంగుమంచుఁ బ-
 ల్కిన నెఱముద్దుమాటలకుఁ గేవలము న్మది సొక్కి తద్వచో-
@@ -2028,32 +1884,29 @@
 చని తనుజేప్సితార్థఫలశాలినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('న', '|'), ('గు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ప్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('నె', '|'), ('ఱ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('గే', 'U'), ('వ', '|'), ('ల', '|'), ('ము', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('త', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('జ', '|'), ('ని', '|'), ('త', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సా', 'U'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('క', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లెం', 'U'), ('చ', '|'), ('ని', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('ప్సి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('శా', 'U'), ('లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>పెరచిఱుత న్మథింపఁ గని పెంచిన యాబిడ చాడి చెప్పినన్
 మఱి విని నీ తనూభవుని మంచికి నీ మది మెచ్చఁబోలు మా
@@ -2061,32 +1914,29 @@
 బ్బురముగ బుద్ధిఁ జెప్పు సిరిబోలిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ర', '|'), ('చి', '|'), ('ఱు', '|'), ('త', 'U'), ('న్మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('ని', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('బి', '|'), ('డ', '|'), ('చా', 'U'), ('డి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('మ', '|'), ('ఱి', '|'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('ని', '|'), ('మం', 'U'), ('చి', '|'), ('కి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('బో', 'U'), ('లు', '|'), ('మా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బొం', 'U'), ('కి', '|'), ('ని', '|'), ('జా', 'U'), ('ల', '|'), ('య', '|'), ('సీ', 'U'), ('మ', '|'), ('జే', 'U'), ('రి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>తనయుని కొంటెచేఁతలకుఁ దండ్రి యహో బెదరించుచున్న లే-
 దనుచు నిజాత్మనాయకుని యాజ్ఞ దొలంగఁగ రాదటన్న వా-
@@ -2094,32 +1944,29 @@
 జని కరుణింపఁజేయు నెఱజాణను దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('కొం', 'U'), ('టె', '|'), ('చే', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('య', '|'), ('హో', 'U'), ('బె', '|'), ('ద', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('లే', 'U'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('ని', '|'), ('యా', 'U'), ('జ్ఞ', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('రా', 'U'), ('ద', '|'), ('ట', 'U'), ('న్న', '|'), ('వా', 'U'), ('గ్ధ', '|'), ('న', '|'), ('మ', '|'), ('టు', '|'), ('డిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('దం', 'U'), ('డ', '|'), ('న', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('య', 'U'), ('డ్డ', '|'), ('ముం', 'U'), ('జ', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('నె', '|'), ('ఱ', '|'), ('జా', 'U'), ('ణ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>తలఁపున నున్న భావ మొకదారిఁ జెలంగఁగ వచ్చిరాని మా-
 టలు మఱి పల్కువేళఁ గడు ఠాయి జెలంగెడు శౌరిసత్కథా-
@@ -2127,32 +1974,29 @@
 ఫల మొనఁగూడెనంచు నుతిఁ బల్కెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('భా', 'U'), ('వ', '|'), ('మొ', '|'), ('క', '|'), ('దా', 'U'), ('రి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('రా', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('డు', '|'), ('ఠా', 'U'), ('యి', '|'), ('జె', '|'), ('లం', 'U'), ('గె', '|'), ('డు', '|'), ('శౌ', 'U'), ('రి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('గా', 'U'), ('వ', '|'), ('డి', '|'), ('నా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('చో', 'U'), ('ఫ', '|'), ('ల', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('డె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>తన తనుజాతుఁ డొక్కతఱిఁ దప్పిదముల్ ఘటియింప భర్త నె-
 మ్మనమున సంతసించుటకు మంచివిగా వినిపించు మంచిగాఁ
@@ -2160,32 +2004,29 @@
 విని మది సంతసిల్లు నలివేణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('జా', 'U'), ('తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('ద', '|'), ('ముల్', 'U'), ('ఘ', '|'), ('టి', '|'), ('యిం', 'U'), ('ప', '|'), ('భ', 'U'), ('ర్త', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('వి', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('చు', '|'), ('మం', 'U'), ('చి', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('నం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('డు', '|'), ('యో', 'U'), ('గ్యు', '|'), ('డ', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>తినుకుచు బువ్వఁ బెట్టుమని తేపకుఁ బాతరలాడుఁ బెట్టినన్
 గనుఁగొని పాలుపోయుమను గ్రక్కునఁ బోసిన “వెన్న గావలెం,
@@ -2193,32 +2034,29 @@
 బనువడఁ జేసి సంతసిలు నంగనఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('ను', '|'), ('కు', '|'), ('చు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పా', 'U'), ('లు', '|'), ('పో', 'U'), ('యు', '|'), ('మ', '|'), ('ను', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్మ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('డ', '|'), ('జే', 'U'), ('సి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>కలకొలఁదిం దనూజునకుఁ గా నొనరించినయట్టి భూషణం-
 బులు ధరియించుచో నెదుటఁ బుత్రునకుం దన దృష్టి తాఁకి మై-
@@ -2226,32 +2064,29 @@
 క్కొలుపుచు సంతసిల్లు సుమకోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('ట', '|'), ('బు', 'U'), ('త్రు', '|'), ('న', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కి', '|'), ('మై', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('నె', 'U'), ('క్కొ', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>అలసట వేసటల్ దలఁప కాఁకలిదప్పుల మీఁది యాశమై
 తొలఁగుచు రాత్రులుం బగలు తోడిచెలు ల్మది మెచ్చఁ దత్తనూ-
@@ -2259,32 +2094,29 @@
 గలదె” యటంచు సంతసిలు కామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('స', '|'), ('ట', '|'), ('వే', 'U'), ('స', '|'), ('టల్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కా', 'U'), ('క', '|'), ('లి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మై', 'U'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('త్రు', '|'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('లు', '|'), ('తో', 'U'), ('డి', '|'), ('చె', '|'), ('లు', 'U'), ('ల్మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ద', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('క', '|'), ('ర్మ', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('ర్తృ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('మిం', 'U'), ('త', '|'), ('కుం', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>సరసవివేకము ల్దనరుజాడ గలుంగను బిడ్డ నొక్కస-
 ద్గురునకు నొప్పగింపుమని కోరిక మీఱ నిజేశుతో మనో-
@@ -2292,32 +2124,29 @@
 ఖరు లెఱిఁగింతు” వంచుఁ గుతుకంపడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్ద', '|'), ('న', '|'), ('రు', '|'), ('జా', 'U'), ('డ', '|'), ('గ', '|'), ('లుం', 'U'), ('గ', '|'), ('ను', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('పు', '|'), ('మ', '|'), ('ని', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('ని', '|'), ('జే', 'U'), ('శు', '|'), ('తో', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వి', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('పు', '|'), ('డో', 'U'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('తు', '|'), ('వం', 'U'), ('చు', '|'), ('గు', '|'), ('తు', '|'), ('కం', 'U'), ('ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>శ్రీలు చెలంగఁగాఁ జదువు చెప్పెడువేళఁ బరాకు మాని మా
 బాలున కిప్డు విద్య బహుభంగుల నేర్పుమటంచు పెక్కుచం-
@@ -2325,32 +2154,29 @@
 ల్మాలిమి మీఱ నట్టి సుకుమారిని దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('లు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', '|'), ('రా', 'U'), ('కు', '|'), ('మా', 'U'), ('ని', '|'), ('మా', 'U'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కి', 'U'), ('ప్డు', '|'), ('వి', 'U'), ('ద్య', '|'), ('బ', '|'), ('హు', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('పె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('ల', '|'), ('నొ', '|'), ('సం', 'U'), ('గు', '|'), ('వ', 'U'), ('స్తు', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('థు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('బ', 'U'), ('ల్మా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', 'U'), ('ట్టి', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>చదివితివేని నీ కిపుడు జామఫలంబులు దెచ్చి యిత్తు స-
 మ్మదమున మంచిదోవతులు మాడలొసంగుదునంచుఁ బల్కి మే-
@@ -2358,32 +2184,29 @@
 బదపడి త్రోవలో నిలుచుఁ బల్మఱు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('నీ', 'U'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('జా', 'U'), ('మ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('త్తు', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('దో', 'U'), ('వ', '|'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('డ', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('మే', 'U'), ('ల్పొ', '|'), ('ద', '|'), ('ల', '|'), ('గ', '|'), ('బు', 'U'), ('జ్జ', '|'), ('గిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బం', 'U'), ('పి', '|'), ('తా', 'U'), ('బ', '|'), ('ద', '|'), ('ప', '|'), ('డి', 'U'), ('త్రో', 'U'), ('వ', '|'), ('లో', 'U'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>చిఱుతను ద్రోవ బాలకులు చిన్నతనంబునఁ గొట్టకుండ భూ-
 సురునకు దిట్టముం బఱుచుచో నిలుచేరను బ్రొద్దుపోవఁగా
@@ -2391,32 +2214,29 @@
 బఱచుఁ దనంతటన్ బడికిఁ బల్మఱు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('ద్రో', 'U'), ('వ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లు', '|'), ('చి', 'U'), ('న్న', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ది', 'U'), ('ట్ట', '|'), ('ముం', 'U'), ('బ', '|'), ('ఱు', '|'), ('చు', '|'), ('చో', 'U'), ('ని', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('ను', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('పో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డా', 'U'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('దిన్', 'U'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('పి', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('బ', '|'), ('ఱ', '|'), ('చు', '|'), ('ద', '|'), ('నం', 'U'), ('త', '|'), ('టన్', 'U'), ('బ', '|'), ('డి', '|'), ('కి', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>పెనఁకువ మీఱ భోజనము పెట్టుమటంచని రాఁ గుమారునిన్
 గని చిఱునవ్వు మోవిపయిఁ గ్రమ్మఁగ నీ విపుడేమి నేర్చితో
@@ -2424,32 +2244,29 @@
 దినుమని బువ్వఁ బెట్టు యువతీమణిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('రా', 'U'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('చి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మో', 'U'), ('వి', '|'), ('ప', '|'), ('యి', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('గ', '|'), ('నీ', 'U'), ('వి', '|'), ('పు', '|'), ('డే', 'U'), ('మి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('మ', '|'), ('ఱు', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('సే', 'U'), ('సి', '|'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('ది', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>మఱి బడిఁ జేరఁబోవునెడ మార్గములోపల ముల్లు నాఁటునో
 మెఱవడి గోవులేమయిన మీదికిఁ జేడ్వడి వచ్చునో యటం-
@@ -2457,32 +2274,29 @@
 ఛ రహి చెలంగ నెల్లపుడుఁ జయ్యనఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ఱి', '|'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('వు', '|'), ('నె', '|'), ('డ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ము', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('టు', '|'), ('నో', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('గో', 'U'), ('వు', '|'), ('లే', 'U'), ('మ', '|'), ('యి', '|'), ('న', '|'), ('మీ', 'U'), ('ది', '|'), ('కి', '|'), ('జే', 'U'), ('డ్వ', '|'), ('డి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నో', 'U'), ('య', '|'), ('టం', 'U'), ('చ', '|'), ('ఱి', '|'), ('ము', '|'), ('రి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱిం', 'U'), ('బ', '|'), ('ని', '|'), ('చి', '|'), ('యా', 'U'), ('ద', '|'), ('ట', '|'), ('దా', 'U'), ('ను', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('నెం', 'U'), ('చు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('ర', '|'), ('హి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>కొడు కెటువంటివాఁ డయినఁ గుంభినిలో నదలింపరాని దుం-
 దుడుకయి యున్న నన్యులకు దొడ్డఱికం బెఱిఁగించుచున్ మదిన్
@@ -2490,32 +2304,29 @@
 దొడఁబడి ప్రోచుచున్న యలతొయ్యలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('డు', '|'), ('కె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('గుం', 'U'), ('భి', '|'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('దుం', 'U'), ('దు', '|'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('ఱి', '|'), ('కం', 'U'), ('బె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('జి', '|'), ('డ', '|'), ('జి', '|'), ('డ', '|'), ('మా', 'U'), ('ని', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('చి', 'U'), ('ప్పి', '|'), ('ల', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('నన్', 'U'), ('దొ', '|'), ('డ', '|'), ('బ', '|'), ('డి', 'U'), ('ప్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>సదమలరీతు లుల్లసిల సార మెఱింగెడి రీతిఁ జక్కఁగాఁ
 జదివితివేని భూజనులు సన్నుతి చేసెద రింతెకాక సం-
@@ -2523,32 +2334,29 @@
 మది ముదమంది యొప్పెసఁగు మానినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('రీ', 'U'), ('తు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గె', '|'), ('డి', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('క్క', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రిం', 'U'), ('తె', '|'), ('కా', 'U'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లె', '|'), ('డ', '|'), ('గూ', 'U'), ('డు', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('మ', '|'), ('ది', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('ది', '|'), ('యొ', 'U'), ('ప్పె', '|'), ('స', '|'), ('గు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>తనయుఁడు సర్వవిద్యలను దద్జ్ఞతఁ గాంచి పఠించుచున్నచో
 విని పరితోషనీరనిధి వెల్లువగాఁ బయిఁ బాఱినట్లు నె-
@@ -2556,32 +2364,29 @@
 యని తలపోయుచుండు కనకాంగినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ద్జ్ఞ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('వి', '|'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('తో', 'U'), ('ష', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('వె', 'U'), ('ల్లు', '|'), ('వ', '|'), ('గా', 'U'), ('బ', '|'), ('యి', '|'), ('బా', 'U'), ('ఱి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గం', 'U'), ('టి', '|'), ('గా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>వెడవెడ నింక భోజనపువేళ గతించిన బిడ్డఁడేమొకో
 బడి విడి రాఁడు నేఁ డనుచుఁ బాతరలాడుచు నుండునంతలోఁ
@@ -2589,32 +2394,29 @@
 బడలిక దీఱ సంతసిలు భామినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('డ', '|'), ('వె', '|'), ('డ', '|'), ('నిం', 'U'), ('క', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('పు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('తిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('బ', '|'), ('డి', '|'), ('వి', '|'), ('డి', '|'), ('రా', 'U'), ('డు', '|'), ('నే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('గ', '|'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('చుం', 'U'), ('చు', '|'), ('దు', 'U'), ('వ్వి', '|'), ('మై', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('దీ', 'U'), ('ఱ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>తనయుని ముద్దుమాటలకుఁ దా ముదమందుచుఁ దేటనీట మ-
 జ్జన మొనరించి మోమునను జాఁదిడి సన్నపుఁ జేలఁ గట్టి బల్
@@ -2622,32 +2424,29 @@
 దని పెఱవారితోఁ బలుకులాడెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('దే', 'U'), ('ట', '|'), ('నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('జా', 'U'), ('ది', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జే', 'U'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బల్', 'U'), ('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('ష', 'U'), ('డ్ర', '|'), ('సా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ము', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('పె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('తో', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>పలుమఱు తాను నందనుఁడు పాఠకశాలకుఁ బోనినాఁడు “నా
 పలుకు వినంగదయ్య మృదుభాషణ లాడఁగదయ్య సత్యమున్
@@ -2655,32 +2454,29 @@
 దెలుపుచు బుద్ధిఁ జెప్పు యువతీమణిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('తా', 'U'), ('ను', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('పా', 'U'), ('ఠ', '|'), ('క', '|'), ('శా', 'U'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('ని', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('స', 'U'), ('త్య', '|'), ('మున్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('నీ', 'U'), ('కె', '|'), ('పు', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('టం', 'U'), ('చు', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>సరసులు మెచ్చఁగా గణితశాస్త్రము నేరిచి సంఖ్యలెల్ల సు-
 స్థిరమతితోడఁ జెప్పుటకుఁ దెల్వి వహించినయట్టి మంచిలే-
@@ -2688,32 +2484,29 @@
 ద్గురునిఁ దలంచుచో నెదను గోరెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('నే', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('కు', '|'), ('దె', 'U'), ('ల్వి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('మం', 'U'), ('చి', '|'), ('లే', 'U'), ('క', '|'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('నా', 'U'), ('సు', '|'), ('త', '|'), ('శి', '|'), ('ఖా', 'U'), ('మ', '|'), ('ణి', '|'), ('యం', 'U'), ('చు', '|'), ('బ', '|'), ('రా', 'U'), ('ప', '|'), ('రే', 'U'), ('శు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('ని', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>విమలవిచారశీలుఁడయి విశ్రుతకీర్తి దిశల్ ఘటిల్ల మా-
 ఘము మొదలైన కావ్యరసకల్పనలు న్మఱి శాస్త్రము ల్పురా-
@@ -2721,32 +2514,29 @@
 కొమరుఁడు నేర్చునో యనుచుఁ గోరెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('శీ', 'U'), ('లు', '|'), ('డ', '|'), ('యి', '|'), ('వి', 'U'), ('శ్రు', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ది', '|'), ('శల్', 'U'), ('ఘ', '|'), ('టి', 'U'), ('ల్ల', '|'), ('మా', 'U'), ('ఘ', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('స', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('లు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('లం', 'U'), ('కృ', '|'), ('తు', 'U'), ('ల్మ', '|'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('బె', '|'), ('ను', '|'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('నె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('నా', 'U'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>స్వరము లలంకృతుల్ కృతులు సయ్యన ముప్పదిరెండు రాగముల్
 మెఱయఁగఁ దాళమానలయమిశ్రసమంచితఖండజాతి సు-
@@ -2754,32 +2544,29 @@
 వరసుతుఁ డెన్నఁ డింక నని వాంఛిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('స్వ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('య్య', '|'), ('న', '|'), ('ము', 'U'), ('ప్ప', '|'), ('ది', '|'), ('రెం', 'U'), ('డు', '|'), ('రా', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ళ', '|'), ('మా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('మి', 'U'), ('శ్ర', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('ఖం', 'U'), ('డ', '|'), ('జా', 'U'), ('తి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('లు', '|'), ('తే', 'U'), ('ట', '|'), ('ప', '|'), ('డ', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('పా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('డె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('న', '|'), ('ని', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>పొలు పలరారఁగాఁ జదివి పూర్ణతఁ గాంచి వయోవిలాసముల్
 వెలయుచునున్న నందనుని వేడుకఁ గన్గొని పెండ్లిచేయఁగా-
@@ -2787,32 +2574,29 @@
 దెలుపుచు సంతసిల్లెడు సతీమణిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('లు', '|'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('య', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('భ', 'U'), ('ర్త', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('స', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>కులమును రూపముం జెలువుఁ గోమలతం దలిదండ్రు లన్నద-
 మ్ములుఁ గలదానిఁగా సుగుణము ల్గలదానినిఁగా దలంచి పై-
@@ -2820,32 +2604,29 @@
 చెలువుగ నేలినట్లు విలసిల్లెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జె', '|'), ('లు', '|'), ('వు', '|'), ('గో', 'U'), ('మ', '|'), ('ల', '|'), ('తం', 'U'), ('ద', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('గా', 'U'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పై', 'U'), ('ద', '|'), ('లి', '|'), ('న', '|'), ('టు', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('సి', '|'), ('య', '|'), ('ల', '|'), ('దం', 'U'), ('ప', '|'), ('తు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ముల్', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గ', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>చెలువము మీఱుచున్న తన చిన్నికుమారునిఁ జూచి మంత్రవా-
 దులు కలుషం బొనర్తురని తోడనె పెద్దల నాశ్రయించి ని-
@@ -2853,32 +2634,29 @@
 రల కుపయుక్తిఁ జేయ నలరారెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('వ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('మం', 'U'), ('త్ర', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ర', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('ని', '|'), ('ర్మ', '|'), ('లు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లన్', 'U'), ('బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('ప', '|'), ('బూ', 'U'), ('న్చి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('ప', '|'), ('యు', 'U'), ('క్తి', '|'), ('జే', 'U'), ('య', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>కొమరుఁడు రాజకార్యములకున్ జని క్రమ్మఱ నింటఁ జేర రాఁ
 దమక మెలర్పఁగాఁ బనులు తాల్మి ఘటించినఁగాని వందిత-
@@ -2886,32 +2664,29 @@
 భిమతము మీఱ భోజనముఁ బెట్టెడి తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('జ', '|'), ('ని', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నిం', 'U'), ('ట', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ల్మి', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వం', 'U'), ('ది', '|'), ('త', 'U'), ('క్ర', '|'), ('మ', '|'), ('మి', '|'), ('గు', '|'), ('రొ', 'U'), ('త్త', '|'), ('నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('తా', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('నా', 'U'), ('భి', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టె', '|'), ('డి', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>కర మరుదార రాజహితకార్యములన్ సవరించి రా సభాం-
 తరమునఁ జేయు సత్క్రియలు దా విని తత్కమనీయకల్పనా-
@@ -2919,32 +2694,29 @@
 సర మలరార దీవనలు సల్పెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లన్', 'U'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('రా', 'U'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లు', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('త', 'U'), ('త్క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('క', 'U'), ('ల్ప', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('యై', 'U'), ('స', '|'), ('దా', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('మ', '|'), ('మొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('మీ', 'U'), ('స', '|'), ('ర', '|'), ('మ', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>భూరివివేకుఁడై సుజనపోషకుఁడై యభిమానుఁడై సదా-
 చారవిహారుఁడై పరమసాత్త్వికుఁడై గుణవంతుఁడయ్యు నేఁ
@@ -2952,32 +2724,29 @@
 నూరక సంతసిల్లి మదినుబ్బెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('డై', 'U'), ('సు', '|'), ('జ', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('డై', 'U'), ('య', '|'), ('భి', '|'), ('మా', 'U'), ('ను', '|'), ('డై', 'U'), ('స', '|'), ('దా', 'U'), ('చా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('రు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('కు', '|'), ('డై', 'U'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డ', 'U'), ('య్యు', '|'), ('నే', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('వి', 'U'), ('ల్లె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('ను', 'U'), ('బ్బె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>చతురతఁ గాంచుచో విమలసాత్త్వికశాస్త్రములెల్ల నేర్చి సు-
 వ్రతుఁడయి సత్యసంధుఁడయి రాజసభాంతరపూజనీయుఁడై,
@@ -2985,32 +2754,29 @@
 గుతుకము మీఱుచున్న యల కోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('గాం', 'U'), ('చు', '|'), ('చో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్చి', '|'), ('సు', 'U'), ('వ్ర', '|'), ('తు', '|'), ('డ', '|'), ('యి', '|'), ('స', 'U'), ('త్య', '|'), ('సం', 'U'), ('ధు', '|'), ('డ', '|'), ('యి', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('పూ', 'U'), ('జ', '|'), ('నీ', 'U'), ('యు', '|'), ('డై', 'U'), ('సు', '|'), ('తు', '|'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జొ', 'U'), ('క్కి', 'U'), ('ప్ర', '|'), ('హ', 'U'), ('ర్ష', '|'), ('ణ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>శ్రీలలరారు సంతతసుశీలుఁడు భూతదయాపరుండు వా-
 చాలుఁ డనన్యచారుజలజాతముఖీహృదయానుకూలుఁ డీ
@@ -3018,32 +2784,29 @@
 గ్రోలుచు సంతసిల్లు సుమకోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('సు', '|'), ('శీ', 'U'), ('లు', '|'), ('డు', '|'), ('భూ', 'U'), ('త', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రుం', 'U'), ('డు', '|'), ('వా', 'U'), ('చా', 'U'), ('లు', '|'), ('డ', '|'), ('న', 'U'), ('న్య', '|'), ('చా', 'U'), ('రు', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('ఖీ', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లు', '|'), ('డీ', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>దానధురాయశోవినయ ధైర్యనిరంతరసాహసక్రియా-
 మాన జనోపకారఘనమాన్యరతుండయి మీనలోచనా-
@@ -3051,32 +2814,29 @@
 దాను దలంచి సంతసిలు తన్వినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('ధు', '|'), ('రా', 'U'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('సా', 'U'), ('హ', '|'), ('స', 'U'), ('క్రి', '|'), ('యా', 'U'), ('మా', 'U'), ('న', '|'), ('జ', '|'), ('నో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', '|'), ('ర', '|'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('డై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వి', '|'), ('శా', 'U'), ('ర', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('సూ', 'U'), ('ను', '|'), ('నిం', 'U'), ('దా', 'U'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('త', 'U'), ('న్వి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>పరనిరతోపకారమృదుభాషణభూషణుఁ డాశ్రితావన-
 స్థిరగుణశాలి నీతిపథజీవనజీవనుఁ డుత్తమాధమాం-
@@ -3084,32 +2844,29 @@
 నరసి మనంబులోన ముదమందెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('ని', '|'), ('ర', '|'), ('తో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణు', '|'), ('డా', 'U'), ('శ్రి', '|'), ('తా', 'U'), ('వ', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('థ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('జీ', 'U'), ('వ', '|'), ('ను', '|'), ('డు', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధ', '|'), ('మాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మే', 'U'), ('టి', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('కు', 'U'), ('న్జ', '|'), ('వ', '|'), ('దా', 'U'), ('ట', '|'), ('డ', 'U'), ('న్న', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>కలుపుఁదనంబుతోడఁ దనుఁ గన్న కుమారుఁడు సంతసిల్లి కో-
 డలికి నలంకరించుచు నొడంబడి బుద్ధులు చెప్పుచున్ దనూ-
@@ -3117,32 +2874,29 @@
 ల్కులకుఁ బ్రమోదమొందు సుమకోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లు', '|'), ('పు', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('కో', 'U'), ('డ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నొ', '|'), ('డం', 'U'), ('బ', '|'), ('డి', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చున్', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('ల', '|'), ('వ', '|'), ('లె', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మ', '|'), ('ఱి', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('కు', 'U'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>కొమరుని దేహపోషణకుఁ గోడలితో దమయంతి సత్కథా-
 క్రమము లతాంగి చంద్రమతి కార్యము జానకి వర్తనంబు చం-
@@ -3150,32 +2904,29 @@
 త్వము లెఱిఁగించుచుండెడు సువాసినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('దే', 'U'), ('హ', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కు', '|'), ('గో', 'U'), ('డ', '|'), ('లి', '|'), ('తో', 'U'), ('ద', '|'), ('మ', '|'), ('యం', 'U'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('తి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('వ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('సూ', 'U'), ('య', '|'), ('న', '|'), ('ర్మి', '|'), ('లి', '|'), ('మొ', '|'), ('దల్', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గ', '|'), ('ల', '|'), ('మే', 'U'), ('ల్ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తా', 'U'), ('త్వ', '|'), ('ము', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డు', '|'), ('సు', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>తనవలె నన్నపానములఁ దన్పునొ తన్పదొ ప్రేమమీఱ నం-
 దనుని నటంచు సందియము తన్నెడఁబాయమిఁ గోడ లంత భో-
@@ -3183,32 +2934,29 @@
 ధనమని తెల్పు ధర్మగుణదాయినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('న్న', '|'), ('పా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ద', 'U'), ('న్పు', '|'), ('నొ', '|'), ('త', 'U'), ('న్ప', '|'), ('దొ', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('ది', '|'), ('య', '|'), ('ము', '|'), ('త', 'U'), ('న్నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('మి', '|'), ('గో', 'U'), ('డ', '|'), ('లం', 'U'), ('త', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('ను', '|'), ('బ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('స', '|'), ('మా', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ము', 'U'), ('క్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('దా', 'U'), ('యి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>చూతఫలోష్ణనూత్నఘృతసూపసమంచదపూపషడ్రసో-
 పేతము గాఁగ భోజనము పెట్టి కుమారున కోలి ఘర్మసం-
@@ -3216,32 +2964,29 @@
 జేతి కొసంగు దివ్యగుణశీలను దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('చూ', 'U'), ('త', '|'), ('ఫ', '|'), ('లో', 'U'), ('ష్ణ', '|'), ('నూ', 'U'), ('త్న', '|'), ('ఘృ', '|'), ('త', '|'), ('సూ', 'U'), ('ప', '|'), ('స', '|'), ('మం', 'U'), ('చ', '|'), ('ద', '|'), ('పూ', 'U'), ('ప', '|'), ('ష', 'U'), ('డ్ర', '|'), ('సో', 'U'), ('పే', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టి', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('న', '|'), ('కో', 'U'), ('లి', '|'), ('ఘ', '|'), ('ర్మ', '|'), ('సం', 'U'), ('జా', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('ది', '|'), ('గ', '|'), ('జా', 'U'), ('ఱు', '|'), ('ట', '|'), ('కై', 'U'), ('ద', '|'), ('య', '|'), ('దా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('తి', '|'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>కొడుకును గోడ లొంటిపడి కొంకుచు సైగలు నారజంపు టా-
 గడములు వింతవింత నెఱగారవముల్ గిలిగింతలాడు మే-
@@ -3249,32 +2994,29 @@
 బుడమి సమస్తమేలు గతిఁ బొంగెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('డు', '|'), ('కు', '|'), ('ను', '|'), ('గో', 'U'), ('డ', '|'), ('లొం', 'U'), ('టి', '|'), ('ప', '|'), ('డి', '|'), ('కొం', 'U'), ('కు', '|'), ('చు', '|'), ('సై', 'U'), ('గ', '|'), ('లు', '|'), ('నా', 'U'), ('ర', '|'), ('జం', 'U'), ('పు', '|'), ('టా', 'U'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('నె', '|'), ('ఱ', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ముల్', 'U'), ('గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('లా', 'U'), ('డు', '|'), ('మే', 'U'), ('ల్స', '|'), ('డి', '|'), ('స', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('లుం', 'U'), ('గు', '|'), ('స', '|'), ('గు', '|'), ('సల్', 'U'), ('జ', '|'), ('రి', '|'), ('గిం', 'U'), ('చు', '|'), ('ట', '|'), ('చూ', 'U'), ('చి', '|'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('మే', 'U'), ('లు', '|'), ('గ', '|'), ('తి', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>తనయుఁడు పుత్రులం గనువిధంబు ఘటించుటకై రమేశు నీ-
 శుని సిరి మీనలోచనను జొక్కము మీఱ భజించు నెన్నఁ డే
@@ -3282,32 +3024,29 @@
 గని ముదమందుచో మిగులఁ గాంక్షిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('పు', 'U'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ట', '|'), ('కై', 'U'), ('ర', '|'), ('మే', 'U'), ('శు', '|'), ('నీ', 'U'), ('శు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('జొ', 'U'), ('క్క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('నె', 'U'), ('న్న', '|'), ('డే', 'U'), ('మ', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('నె', 'U'), ('త్తి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('దు', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చో', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గాం', 'U'), ('క్షి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>కర మనురక్తి నందనులు గల్గుటకై తన ముద్దుగోడలిం
 గురుతరభక్తి దేవతలకుం బ్రణమిల్లఁగఁ జేయు వేంకటే-
@@ -3315,32 +3054,29 @@
 త్కరముగ నిచ్చుచోఁ గరుణ గల్గిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కై', 'U'), ('త', '|'), ('న', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('మి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('చా', 'U'), ('టు', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లు', '|'), ('నో', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>“అనయము కీర్తిహాని సుజనాదరణీయము గాదు సిగ్గుఁబా-
 టెనయఁగఁ జేయు లోకు లతిహీనతగా మతినెంతు రెందు దు-
@@ -3348,32 +3084,29 @@
 విను”మని బుద్ధిఁ జెప్పు ఘనవేణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('హా', 'U'), ('ని', '|'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ణీ', 'U'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('బా', 'U'), ('టె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('తి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('గా', 'U'), ('మ', '|'), ('తి', '|'), ('నెం', 'U'), ('తు', '|'), ('రెం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('జౌ', 'U'), ('క', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('నన్', 'U'), ('సు', '|'), ('మా', 'U'), ('వి', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ఘ', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>“ధన మొనగూర్చు సద్గుణవితాన మొనర్చు ధరిత్రిలోపలన్
 ఘనత ఘటించు రాజగురుకార్యసమున్నతిఁ జేయుఁ గీర్తికాం-
@@ -3381,32 +3114,29 @@
 జ్జనసహవాస” మంచు నుడి సల్పెడు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('రు', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్తి', '|'), ('ప', '|'), ('థ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మం', 'U'), ('చు', '|'), ('ను', '|'), ('డి', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>“అనయము రాజకార్యములయందుఁ బ్రవర్తన సేయువేళ భూ-
 జనులకుఁ గీడు పన్నునెడ సడ్డ ఘటింపఁగ నీకు లోకనిం-
@@ -3414,32 +3144,29 @@
 ధన” మని తెల్పు సద్గుణమతల్లిని దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('వే', 'U'), ('ళ', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('గీ', 'U'), ('డు', '|'), ('ప', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('స', 'U'), ('డ్డ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('నిం', 'U'), ('ద', '|'), ('న', '|'), ('కె', '|'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('మ', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>“తలఁప నగణ్యుఁడై బుధవితానము వర్ణనచేయ సత్క్రియా-
 కలనఁ జెలంగి సద్గుణము గల్గిననుం దనుఁ గన్న తల్లితం-
@@ -3447,32 +3174,29 @@
 దెలుపుచు సంతసిల్లు యువతీమణిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('ప', '|'), ('న', '|'), ('గ', 'U'), ('ణ్యు', '|'), ('డై', 'U'), ('బు', '|'), ('ధ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('చే', 'U'), ('య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('జె', '|'), ('లం', 'U'), ('గి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నుం', 'U'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('తం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('య', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రం', 'U'), ('చు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కిం', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>శిష్టులు మెచ్చ సజ్జనులు చేకొనునట్లు దలంచి జ్ఞానవా-
 సిష్ఠముఖప్రబంధములు చెప్పుచు సత్త్వపురాణమర్మసా-
@@ -3480,32 +3204,29 @@
 తుష్టి చెలంగుచున్న యల తొయ్యలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('శి', 'U'), ('ష్టు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('కొ', '|'), ('ను', '|'), ('న', 'U'), ('ట్లు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వా', 'U'), ('సి', 'U'), ('ష్ఠ', '|'), ('ము', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('మ', '|'), ('ర్మ', '|'), ('సా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('వి', '|'), ('ధుల్', 'U'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('బు', 'U'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>కోడలు గర్భమౌట తనకు న్మదిఁ దోఁచినయంత బ్రేమ గొం-
 డాడ సుపుత్రునిం బడయునట్లు ఘటింపు మటంచు శూలి పూఁ-
@@ -3513,32 +3234,29 @@
 వేడుకమీఱ వేఁడు నలివేణినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('ర్భ', '|'), ('మౌ', 'U'), ('ట', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('యం', 'U'), ('త', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('గొం', 'U'), ('డా', 'U'), ('డ', '|'), ('సు', '|'), ('పు', 'U'), ('త్రు', '|'), ('నిం', 'U'), ('బ', '|'), ('డ', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('శూ', 'U'), ('లి', '|'), ('పూ', 'U'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('మం', 'U'), ('ద', '|'), ('గా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', '|'), ('బు', 'U'), ('ష్ప', '|'), ('సు', '|'), ('గం', 'U'), ('ధి', '|'), ('ని', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నన్', 'U'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>మనుమఁ డటంచుఁ బిల్వ సుకుమారునిఁ గోడలు గన్న మాటఁ దా
 విని యనివారదానముల వేలముగా నొనరింపఁజేసి చ-
@@ -3546,32 +3264,29 @@
 న్గొని ముదమందునట్టి యల కోమలిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ను', '|'), ('మ', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్వ', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('య', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('వే', 'U'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('వా', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('మొ', '|'), ('ర', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('న', 'U'), ('ట్టి', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>కలిమి బలంబు భోగము సుఖంబు జయంబు యశస్సమృద్ధియుం
 గలుగఁగఁ గోరుచుం దనదు కాయము డస్సిన శక్తి లేమిడిన్
@@ -3579,32 +3294,29 @@
 ర్మలమతిఁ బుత్రవత్సలత రంజిలు తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('మి', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('జ', '|'), ('యం', 'U'), ('బు', '|'), ('య', '|'), ('శ', 'U'), ('స్స', '|'), ('మృ', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('గో', 'U'), ('రు', '|'), ('చుం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('డ', 'U'), ('స్సి', '|'), ('న', '|'), ('శ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('మి', '|'), ('డిన్', 'U'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('ప', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('బు', 'U'), ('త్ర', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('త', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>సరవిఁ గుమారవాంఛ కొనసాగుటకై పడు వేవులింత నో-
 రరుచి విచేష్ట గాసి మొదలైన ప్రయాసములెల్లఁ జూడఁగా
@@ -3612,32 +3324,29 @@
 ష్కరతరబాధ లోరువరు గావునఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('మా', 'U'), ('ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('ప', '|'), ('డు', '|'), ('వే', 'U'), ('వు', '|'), ('లిం', 'U'), ('త', '|'), ('నో', 'U'), ('ర', '|'), ('రు', '|'), ('చి', '|'), ('వి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('గా', 'U'), ('సి', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('రు', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('లో', 'U'), ('రు', '|'), ('వ', '|'), ('రు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>కడువడి మీఱ నందనుని గర్భములో భరియించి యింటిలో
 నడిచెడివేళఁ దాఁ బనులు నాణెముగా నొనరించువేళ నిం-
@@ -3645,32 +3354,29 @@
 పుడమిని లోకమాత యనఁబోలిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('నా', 'U'), ('ణె', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ళ', '|'), ('నిం', 'U'), ('ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గూ', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('నై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('ర్చె', '|'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('లో', 'U'), ('క', '|'), ('మా', 'U'), ('త', '|'), ('య', '|'), ('న', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>ప్రసవము నొందునాఁడు పడు బాములు చూచినఁ బ్రాణహానియై
 యెసఁగినఁగాని లోనఁ గసటెంతయు లేకయె పుత్రవాంఛ లో
@@ -3678,32 +3384,29 @@
 వసుమతిలోన దివ్యగుణవార్ధినిఁ దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('స', '|'), ('వ', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డు', '|'), ('బా', 'U'), ('ము', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యై', 'U'), ('యె', '|'), ('స', '|'), ('గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('స', '|'), ('టెం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('పు', 'U'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('మ', '|'), ('స', '|'), ('లె', '|'), ('డు', '|'), ('గా', 'U'), ('న', '|'), ('నిం', 'U'), ('కి', '|'), ('ట', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('స', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రీ', 'U'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>నేరుపు విద్యయుం గలిమి నీతివివేకము గల్గునట్లుగా
 సారెకుఁ దెల్పుచో జగతి సౌఖ్యము గల్గ ఘటింపఁజేయుచో
@@ -3711,32 +3414,29 @@
 దారము రీతిఁ బ్రోచు గుణధన్యను దల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('రు', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('యుం', 'U'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('తి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('చో', 'U'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నా', 'U'), ('ర', '|'), ('య', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('హ', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('రీ', 'U'), ('తి', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('గు', '|'), ('ణ', '|'), ('ధ', 'U'), ('న్య', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>శ్రీ వెలయంగ లోకు లిది చిత్రమటంచు మదిం దలంప న-
 ప్పా వతిభక్తితో జననిపైఁ గల ప్రేమ దురంగలించి రాఁ-
@@ -3744,17 +3444,17 @@
 బూవిలుకానిఁ గన్న సిరిఁబోలిన తల్లినిఁ బోలరెవ్వరున్.</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maathru</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>maathru</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
         <is>
           <t>[('శ్రీ', 'U'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గ', '|'), ('లో', 'U'), ('కు', '|'), ('లి', '|'), ('ది', '|'), ('చి', 'U'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('దిం', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('న', 'U'), ('ప్పా', 'U'), ('వ', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('పై', 'U'), ('గ', '|'), ('ల', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('దు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('చి', '|'), ('రా', 'U'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మా', 'U'), ('తృ', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('రి', '|'), ('చె', '|'), ('గా', 'U'), ('న', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
         </is>

--- a/dataset/lg/maathru.xlsx
+++ b/dataset/lg/maathru.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('యై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('ధు', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('త్రి', '|'), ('శూ', 'U'), ('ల', '|'), ('పా', 'U'), ('ణి', '|'), ('యై', 'U'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('మా', 'U'), ('మృ', '|'), ('డా', 'U'), ('ను', '|'), ('లై', 'U'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కుం', 'U'), ('బొ', '|'), ('లం', 'U'), ('తి', '|'), ('య', '|'), ('యి', '|'), ('నా', 'U'), ('ప', '|'), ('రి', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యో', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('న', '|'), ('బో', 'U'), ('ధ', '|'), ('నో', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('దె', 'U'), ('ల్ప', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('యై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('ధు', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('త్రి', '|'), ('శూ', 'U'), ('ల', '|'), ('పా', 'U'), ('ణి', '|'), ('యై', 'U'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('మా', 'U'), ('మృ', '|'), ('డా', 'U'), ('ను', '|'), ('లై', 'U'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కుం', 'U'), ('బొ', '|'), ('లం', 'U'), ('తి', '|'), ('య', '|'), ('యి', '|'), ('నా', 'U'), ('ప', '|'), ('రి', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యో', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('న', '|'), ('బో', 'U'), ('ధ', '|'), ('నో', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('దె', 'U'), ('ల్ప', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('ల', '|'), ('రు', '|'), ('హ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డై', 'U'), ('న', '|'), ('య', '|'), ('ల', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బొ', 'U'), ('డ్డు', '|'), ('త', 'U'), ('మ్మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ను', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్వ', '|'), ('ని', '|'), ('త', '|'), ('పా', 'U'), ('లి', '|'), ('టి', '|'), ('పె', 'U'), ('న్ని', '|'), ('ధి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('బెం', 'U'), ('ప', '|'), ('ల', '|'), ('రి', '|'), ('న', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('ని', '|'), ('నా', 'U'), ('ది', '|'), ('మ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('త్ర', '|'), ('యీ', 'U'), ('మ', '|'), ('యో', 'U'), ('క్తు', '|'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డి', '|'), ('నా', 'U'), ('ద్య', '|'), ('య', '|'), ('గు', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('జ', '|'), ('ల', '|'), ('రు', '|'), ('హ', '|'), ('నే', 'U'), ('త్రు', '|'), ('డై', 'U'), ('న', '|'), ('య', '|'), ('ల', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బొ', 'U'), ('డ్డు', '|'), ('త', 'U'), ('మ్మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ను', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్వ', '|'), ('ని', '|'), ('త', '|'), ('పా', 'U'), ('లి', '|'), ('టి', '|'), ('పె', 'U'), ('న్ని', '|'), ('ధి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('బెం', 'U'), ('ప', '|'), ('ల', '|'), ('రి', '|'), ('న', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('ని', '|'), ('నా', 'U'), ('ది', '|'), ('మ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('త్ర', '|'), ('యీ', 'U'), ('మ', '|'), ('యో', 'U'), ('క్తు', '|'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డి', '|'), ('నా', 'U'), ('ద్య', '|'), ('య', '|'), ('గు', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జె', '|'), ('లు', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పు', '|'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గొ', 'U'), ('య్య', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('త్రు', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('మొం', 'U'), ('ది', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('నె', '|'), ('పం', 'U'), ('బి', '|'), ('డి', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('గాం', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ల్కొ', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్జె', '|'), ('లు', '|'), ('ల', '|'), ('జే', 'U'), ('రి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పు', '|'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గొ', 'U'), ('య్య', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('త్రు', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('మొం', 'U'), ('ది', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('నె', '|'), ('పం', 'U'), ('బి', '|'), ('డి', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('ము', '|'), ('రి', '|'), ('ప', '|'), ('ము', '|'), ('గాం', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ల్కొ', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('బా', 'U'), ('ల', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('నొ', '|'), ('డి', '|'), ('పై', 'U'), ('గ', '|'), ('డు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('ని', 'U'), ('ల్పి', '|'), ('తా', 'U'), ('నో', 'U'), ('ల', '|'), ('లు', '|'), ('పా', 'U'), ('డు', '|'), ('చున్', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('యు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('కే', 'U'), ('ల', '|'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చో', 'U'), ('జా', 'U'), ('ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('గా', 'U'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('కా', 'U'), ('ల', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('బా', 'U'), ('ల', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('నొ', '|'), ('డి', '|'), ('పై', 'U'), ('గ', '|'), ('డు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('ని', 'U'), ('ల్పి', '|'), ('తా', 'U'), ('నో', 'U'), ('ల', '|'), ('లు', '|'), ('పా', 'U'), ('డు', '|'), ('చు', 'U'), ('న్బొ', '|'), ('ద', '|'), ('లి', '|'), ('యు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('కే', 'U'), ('ల', '|'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చో', 'U'), ('జా', 'U'), ('ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('గా', 'U'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('కా', 'U'), ('ల', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నెం', 'U'), ('చి', '|'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('నో', 'U'), ('ట', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ను', '|'), ('బా', 'U'), ('ర్వ', '|'), ('తి', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('శాం', 'U'), ('భ', '|'), ('వీ', 'U'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('ప్ర', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మిం', 'U'), ('క', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డు', '|'), ('సు', '|'), ('త', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కు', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నెం', 'U'), ('చి', '|'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('నో', 'U'), ('ట', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ను', '|'), ('బా', 'U'), ('ర్వ', '|'), ('తి', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('శాం', 'U'), ('భ', '|'), ('వీ', 'U'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('ప్ర', '|'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మిం', 'U'), ('క', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డు', '|'), ('సు', '|'), ('త', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కు', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('రా', 'U'), ('త్రి', '|'), ('చెం', 'U'), ('గ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పెం', 'U'), ('గొ', '|'), ('ల', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('రే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖ', '|'), ('ప్ర', '|'), ('దా', 'U'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నా', 'U'), ('ద', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('కు', '|'), ('నిం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('మే', 'U'), ('ల్చె', '|'), ('లు', '|'), ('వ', '|'), ('మ', '|'), ('దే', 'U'), ('ల', '|'), ('యం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జిం', 'U'), ('తి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('శీ', 'U'), ('త', '|'), ('మ', '|'), ('యూ', 'U'), ('ఖు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('రా', 'U'), ('త్రి', '|'), ('చెం', 'U'), ('గ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పెం', 'U'), ('గొ', '|'), ('ల', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('రే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖ', '|'), ('ప్ర', '|'), ('దా', 'U'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నా', 'U'), ('ద', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('కు', '|'), ('నిం', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('మే', 'U'), ('ల్చె', '|'), ('లు', '|'), ('వ', '|'), ('మ', '|'), ('దే', 'U'), ('ల', '|'), ('యం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జిం', 'U'), ('తి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నె', '|'), ('ఱ', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('భా', 'U'), ('గ్య', '|'), ('భో', 'U'), ('గ', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('మ', '|'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కున్', 'U'), ('ది', '|'), ('ట', '|'), ('మా', 'U'), ('ర', '|'), ('నే', 'U'), ('మి', '|'), ('నో', 'U'), ('చి', '|'), ('తి', '|'), ('రొ', '|'), ('త', '|'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('మి', '|'), ('మ', '|'), ('ఱి', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('రో', 'U'), ('య', '|'), ('ని', '|'), ('పు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('సు', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్టి', '|'), ('నె', '|'), ('ఱ', '|'), ('సుం', 'U'), ('ద', '|'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('భా', 'U'), ('గ్య', '|'), ('భో', 'U'), ('గ', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('మ', '|'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కు', 'U'), ('న్ది', '|'), ('ట', '|'), ('మా', 'U'), ('ర', '|'), ('నే', 'U'), ('మి', '|'), ('నో', 'U'), ('చి', '|'), ('తి', '|'), ('రొ', '|'), ('త', '|'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('మి', '|'), ('మ', '|'), ('ఱి', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('రో', 'U'), ('య', '|'), ('ని', '|'), ('పు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('రు', '|'), ('గి', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('పు', '|'), ('త్రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కా', 'U'), ('త్మ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('యు', '|'), ('గా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ప్ర', '|'), ('భృ', '|'), ('తి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('దా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('ది', '|'), ('జే', 'U'), ('డ్ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పొ', '|'), ('రు', '|'), ('గి', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('పు', '|'), ('త్రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కా', 'U'), ('త్మ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('యు', '|'), ('గా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ప్ర', '|'), ('భృ', '|'), ('తి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('దా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('ది', '|'), ('జే', 'U'), ('డ్ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('మీ', 'U'), ('ది', '|'), ('బా', 'U'), ('ళి', '|'), ('మ', '|'), ('ది', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('చో', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లా', 'U'), ('ది', '|'), ('య', '|'), ('గు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('దం', 'U'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('న', '|'), ('ప్రే', 'U'), ('మ', '|'), ('మై', 'U'), ('నొ', '|'), ('గి', '|'), ('ద', '|'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('నో', 'U'), ('ర్చు', '|'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మే', 'U'), ('మి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('ని', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('మీ', 'U'), ('ది', '|'), ('బా', 'U'), ('ళి', '|'), ('మ', '|'), ('ది', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('చో', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లా', 'U'), ('ది', '|'), ('య', '|'), ('గు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('దం', 'U'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('న', '|'), ('ప్రే', 'U'), ('మ', '|'), ('మై', 'U'), ('నొ', '|'), ('గి', '|'), ('ద', '|'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('నో', 'U'), ('ర్చు', '|'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మే', 'U'), ('మి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('ని', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('సే', 'U'), ('తు', '|'), ('వు', '|'), ('లో', 'U'), ('ము', '|'), ('నుం', 'U'), ('గు', '|'), ('న', '|'), ('తి', '|'), ('శే', 'U'), ('ము', '|'), ('షి', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('సం', 'U'), ('ప్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('నై', 'U'), ('దు', '|'), ('వ', '|'), ('రాం', 'U'), ('డ్ర', '|'), ('కె', 'U'), ('ల్ల', '|'), ('న', 'U'), ('య్యే', 'U'), ('త', '|'), ('ని', '|'), ('వా', 'U'), ('రు', '|'), ('వా', 'U'), ('య', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('దా', 'U'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('నో', 'U'), ('ము', '|'), ('నో', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('యే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('సే', 'U'), ('తు', '|'), ('వు', '|'), ('లో', 'U'), ('ము', '|'), ('నుం', 'U'), ('గు', '|'), ('న', '|'), ('తి', '|'), ('శే', 'U'), ('ము', '|'), ('షి', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('సం', 'U'), ('ప్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('నై', 'U'), ('దు', '|'), ('వ', '|'), ('రాం', 'U'), ('డ్ర', '|'), ('కె', 'U'), ('ల్ల', '|'), ('న', 'U'), ('య్యే', 'U'), ('త', '|'), ('ని', '|'), ('వా', 'U'), ('రు', '|'), ('వా', 'U'), ('య', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('దా', 'U'), ('నే', 'U'), ('త', '|'), ('ఱి', '|'), ('నో', 'U'), ('ము', '|'), ('నో', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('యే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('మో', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('య', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('బి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ద్రు', '|'), ('నా', 'U'), ('గా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('బే', 'U'), ('ద', '|'), ('ఱి', '|'), ('కం', 'U'), ('బ', '|'), ('దెం', 'U'), ('త', '|'), ('మ', '|'), ('ఱి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నా', 'U'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('మో', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('య', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('బి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ద్రు', '|'), ('నా', 'U'), ('గా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('బే', 'U'), ('ద', '|'), ('ఱి', '|'), ('కం', 'U'), ('బ', '|'), ('దెం', 'U'), ('త', '|'), ('మ', '|'), ('ఱి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నా', 'U'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('బె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ల', '|'), ('నె', 'U'), ('త్తు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చో', 'U'), ('బె', '|'), ('నం', 'U'), ('గి', '|'), ('య', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లె', 'U'), ('న్న', '|'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('క', '|'), ('న', '|'), ('నో', 'U'), ('తు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('లే', 'U'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('జెం', 'U'), ('దు', '|'), ('చు', '|'), ('ని', 'U'), ('ష్ట', '|'), ('దై', 'U'), ('వ', '|'), ('మున్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('బె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ల', '|'), ('నె', 'U'), ('త్తు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చో', 'U'), ('బె', '|'), ('నం', 'U'), ('గి', '|'), ('య', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లె', 'U'), ('న్న', '|'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('క', '|'), ('న', '|'), ('నో', 'U'), ('తు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('లే', 'U'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('జెం', 'U'), ('దు', '|'), ('చు', '|'), ('ని', 'U'), ('ష్ట', '|'), ('దై', 'U'), ('వ', '|'), ('మున్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('కి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ల', '|'), ('బా', 'U'), ('ళి', '|'), ('మ్రు', 'U'), ('గ్గు', '|'), ('లి', '|'), ('డు', '|'), ('దా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('న', '|'), ('ది', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కున్', 'U'), ('మ', '|'), ('ఱి', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('ర్భ', '|'), ('హే', 'U'), ('తు', '|'), ('వి', '|'), ('వి', '|'), ('ధౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ముల్', 'U'), ('ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('చిం', 'U'), ('త', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ల', '|'), ('బా', 'U'), ('ళి', '|'), ('మ్రు', 'U'), ('గ్గు', '|'), ('లి', '|'), ('డు', '|'), ('దా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('న', '|'), ('ది', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('ర్భ', '|'), ('హే', 'U'), ('తు', '|'), ('వి', '|'), ('వి', '|'), ('ధౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ము', 'U'), ('ల్ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('చిం', 'U'), ('త', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ల్ల', '|'), ('డి', '|'), ('సే', 'U'), ('య', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖు', '|'), ('నిం', 'U'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('ర', '|'), ('గ', 'U'), ('న్న', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ని', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నె', 'U'), ('మ్మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గా', 'U'), ('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('సా', 'U'), ('గి', '|'), ('లం', 'U'), ('బ', '|'), ('డు', '|'), ('చు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ల్ల', '|'), ('డి', '|'), ('సే', 'U'), ('య', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖు', '|'), ('నిం', 'U'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('ర', '|'), ('గ', 'U'), ('న్న', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ని', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నె', 'U'), ('మ్మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గా', 'U'), ('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('సా', 'U'), ('గి', '|'), ('లం', 'U'), ('బ', '|'), ('డు', '|'), ('చు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('తా', 'U'), ('ను', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ను', '|'), ('బ్రే', 'U'), ('మ', '|'), ('బు', '|'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('వీ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('హీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ము', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('తా', 'U'), ('ను', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ను', '|'), ('బ్రే', 'U'), ('మ', '|'), ('బు', '|'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('వీ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('హీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('ఎ', '|'), ('ఱు', '|'), ('కు', '|'), ('ల', '|'), ('సా', 'U'), ('ని', '|'), ('గ', 'U'), ('ద్దె', '|'), ('వి', '|'), ('న', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గ', '|'), ('త', '|'), ('లే', 'U'), ('ఖ', '|'), ('లూ', 'U'), ('ర్జి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', '|'), ('త్రు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('గ', '|'), ('ల', '|'), ('ర', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ర', '|'), ('ట', '|'), ('దో', 'U'), ('ప', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('లో', 'U'), ('న', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('గొ', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('బే', 'U'), ('ర్చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ఎ', '|'), ('ఱు', '|'), ('కు', '|'), ('ల', '|'), ('సా', 'U'), ('ని', '|'), ('గ', 'U'), ('ద్దె', '|'), ('వి', '|'), ('న', '|'), ('నెం', 'U'), ('చు', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గ', '|'), ('త', '|'), ('లే', 'U'), ('ఖ', '|'), ('లూ', 'U'), ('ర్జి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', '|'), ('త్రు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('గ', '|'), ('ల', '|'), ('ర', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ర', '|'), ('ట', '|'), ('దో', 'U'), ('ప', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('లో', 'U'), ('న', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('గొ', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('బే', 'U'), ('ర్చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లి', '|'), ('చెం', 'U'), ('గ', '|'), ('దే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('పా', 'U'), ('ణు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ద', '|'), ('ర', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బిం', 'U'), ('డ', '|'), ('ము', 'U'), ('ష్ణ', '|'), ('మున్', 'U'), ('దొ', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('ధుల్', 'U'), ('మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('మో', 'U'), ('హ', '|'), ('మ', 'U'), ('త్యు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భం', 'U'), ('గి', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('వ', '|'), ('గ', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లి', '|'), ('చెం', 'U'), ('గ', '|'), ('దే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('పా', 'U'), ('ణు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', '|'), ('ధి', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ద', '|'), ('ర', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బిం', 'U'), ('డ', '|'), ('ము', 'U'), ('ష్ణ', '|'), ('మున్', 'U'), ('దొ', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('ధు', 'U'), ('ల్మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('మో', 'U'), ('హ', '|'), ('మ', 'U'), ('త్యు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భం', 'U'), ('గి', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('వ', '|'), ('గ', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('వి', '|'), ('ళు', '|'), ('లో', 'U'), ('కి', '|'), ('రిం', 'U'), ('త', '|'), ('లు', '|'), ('ను', '|'), ('వి', 'U'), ('న్న', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దో', 'U'), ('ప', '|'), ('డ', 'U'), ('స్సి', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('క్ర', '|'), ('మ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('సం', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మాం', 'U'), ('త్రి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కిన్', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('స', '|'), ('దా', 'U'), ('య', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('వే', 'U'), ('వి', '|'), ('ళు', '|'), ('లో', 'U'), ('కి', '|'), ('రిం', 'U'), ('త', '|'), ('లు', '|'), ('ను', '|'), ('వి', 'U'), ('న్న', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దో', 'U'), ('ప', '|'), ('డ', 'U'), ('స్సి', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('క్ర', '|'), ('మ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('సం', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మాం', 'U'), ('త్రి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కిన్', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('స', '|'), ('దా', 'U'), ('య', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లు', '|'), ('వన్', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', '|'), ('ని', 'U'), ('వ్వ', '|'), ('టి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('బై', 'U'), ('డి', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('లు', '|'), ('మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('బె', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('గా', 'U'), ('లి', '|'), ('సో', 'U'), ('కె', '|'), ('డు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కీ', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('న', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('క్రి', '|'), ('య', '|'), ('లు', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('నె', '|'), ('ల', '|'), ('ని', '|'), ('లు', '|'), ('వ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', '|'), ('ని', 'U'), ('వ్వ', '|'), ('టి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('బై', 'U'), ('డి', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('లు', '|'), ('మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('బె', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('గా', 'U'), ('లి', '|'), ('సో', 'U'), ('కె', '|'), ('డు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('ను', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కీ', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('న', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('క్రి', '|'), ('య', '|'), ('లు', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('లి', '|'), ('టు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ద', '|'), ('ను', '|'), ('జీ', 'U'), ('ఱి', '|'), ('న', '|'), ('వే', 'U'), ('స', '|'), ('ట', '|'), ('గ', 'U'), ('ర్భ', '|'), ('గో', 'U'), ('ళ', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('సు', '|'), ('తా', 'U'), ('వ', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('జ', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('యూ', 'U'), ('హ', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('దే', 'U'), ('హ', '|'), ('ళీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నె', '|'), ('గ', '|'), ('దా', 'U'), ('ట', '|'), ('నే', 'U'), ('ర', '|'), ('న', '|'), ('ని', '|'), ('త', 'U'), ('గ్గు', '|'), ('లు', '|'), ('మి', 'U'), ('ఱ్ఱు', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('తి', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('క', '|'), ('ద', '|'), ('లం', 'U'), ('గి', '|'), ('తా', 'U'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('లి', '|'), ('టు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ద', '|'), ('ను', '|'), ('జీ', 'U'), ('ఱి', '|'), ('న', '|'), ('వే', 'U'), ('స', '|'), ('ట', '|'), ('గ', 'U'), ('ర్భ', '|'), ('గో', 'U'), ('ళ', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('సు', '|'), ('తా', 'U'), ('వ', '|'), ('నే', 'U'), ('చ్ఛ', '|'), ('జ', '|'), ('న', '|'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('యూ', 'U'), ('హ', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('దే', 'U'), ('హ', '|'), ('ళీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నె', '|'), ('గ', '|'), ('దా', 'U'), ('ట', '|'), ('నే', 'U'), ('ర', '|'), ('న', '|'), ('ని', '|'), ('త', 'U'), ('గ్గు', '|'), ('లు', '|'), ('మి', 'U'), ('ఱ్ఱు', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('తి', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('క', '|'), ('ద', '|'), ('లం', 'U'), ('గి', '|'), ('తా', 'U'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('యి', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('గ', 'U'), ('ర్భ', '|'), ('వే', 'U'), ('ద', '|'), ('నా', 'U'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నుం', 'U'), ('డు', '|'), ('త', '|'), ('ఱి', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('పు', '|'), ('త్రు', '|'), ('ని', '|'), ('గాం', 'U'), ('చె', '|'), ('న', 'U'), ('న్ను', '|'), ('దా', 'U'), ('నా', 'U'), ('స', '|'), ('డి', '|'), ('వి', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బ', '|'), ('మృ', '|'), ('త', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ధా', 'U'), ('రా', 'U'), ('స', '|'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('మా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('యి', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('గ', 'U'), ('ర్భ', '|'), ('వే', 'U'), ('ద', '|'), ('నా', 'U'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నుం', 'U'), ('డు', '|'), ('త', '|'), ('ఱి', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('పు', '|'), ('త్రు', '|'), ('ని', '|'), ('గాం', 'U'), ('చె', '|'), ('న', 'U'), ('న్ను', '|'), ('దా', 'U'), ('నా', 'U'), ('స', '|'), ('డి', '|'), ('వి', 'U'), ('న్న', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బ', '|'), ('మృ', '|'), ('త', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ధా', 'U'), ('రా', 'U'), ('స', '|'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('సు', '|'), ('కు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నుం', 'U'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('ని', '|'), ('సు', '|'), ('పు', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('రీ', 'U'), ('తు', '|'), ('లన్', 'U'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('త', 'U'), ('త్సు', '|'), ('తా', 'U'), ('వ', '|'), ('న', '|'), ('వి', '|'), ('మ', 'U'), ('ర్శ', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('జిం', 'U'), ('దు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('బ్రో', 'U'), ('చు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('గ', '|'), ('ల', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('వి', '|'), ('సు', '|'), ('కు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నుం', 'U'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('ని', '|'), ('సు', '|'), ('పు', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('రీ', 'U'), ('తు', '|'), ('లన్', 'U'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('త', 'U'), ('త్సు', '|'), ('తా', 'U'), ('వ', '|'), ('న', '|'), ('వి', '|'), ('మ', 'U'), ('ర్శ', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('జిం', 'U'), ('దు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('బ్రో', 'U'), ('చు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('గ', '|'), ('ల', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('జ', '|'), ('నిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('సా', 'U'), ('ర్థ', '|'), ('క', '|'), ('మై', 'U'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', '|'), ('టు', '|'), ('లు', 'U'), ('ర్వి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పెం', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గె', 'U'), ('ల్చు', '|'), ('చో', 'U'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('తూ', 'U'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లె', '|'), ('డ', '|'), ('నా', 'U'), ('టి', '|'), ('న', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('జ', '|'), ('నిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('సా', 'U'), ('ర్థ', '|'), ('క', '|'), ('మై', 'U'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', 'U'), ('బ్బి', '|'), ('న', '|'), ('టు', '|'), ('లు', 'U'), ('ర్వి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పెం', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గె', 'U'), ('ల్చు', '|'), ('చో', 'U'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('తూ', 'U'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లె', '|'), ('డ', '|'), ('నా', 'U'), ('టి', '|'), ('న', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('రి', '|'), ('టి', '|'), ('లు', '|'), ('సొ', 'U'), ('చ్చి', '|'), ('యు', 'U'), ('న్న', '|'), ('త', '|'), ('ఱి', '|'), ('బు', '|'), ('త్రు', '|'), ('న', '|'), ('కున్', 'U'), ('వి', '|'), ('వి', '|'), ('ధో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('చే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ను', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('ప్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('య', 'U'), ('ట్లు', '|'), ('చూ', 'U'), ('చు', '|'), ('నె', '|'), ('ఱ', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('దొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పు', '|'), ('రి', '|'), ('టి', '|'), ('లు', '|'), ('సొ', 'U'), ('చ్చి', '|'), ('యు', 'U'), ('న్న', '|'), ('త', '|'), ('ఱి', '|'), ('బు', '|'), ('త్రు', '|'), ('న', '|'), ('కు', 'U'), ('న్వి', '|'), ('వి', '|'), ('ధో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('చే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ను', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('ప్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('య', 'U'), ('ట్లు', '|'), ('చూ', 'U'), ('చు', '|'), ('నె', '|'), ('ఱ', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('దొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కిం', 'U'), ('పొ', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('రు', '|'), ('మా', 'U'), ('న్పి', '|'), ('చె', '|'), ('లు', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', '|'), ('ను', 'U'), ('గ్గి', '|'), ('డ', '|'), ('ర', 'U'), ('మ్మ', '|'), ('మీ', 'U'), ('ర', '|'), ('లే', 'U'), ('ది', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('దే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బి', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వ', '|'), ('న', '|'), ('క్రి', '|'), ('య', '|'), ('ల', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్జ', '|'), ('రు', '|'), ('పు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కిం', 'U'), ('పొ', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('రు', '|'), ('మా', 'U'), ('న్పి', '|'), ('చె', '|'), ('లు', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', '|'), ('ను', 'U'), ('గ్గి', '|'), ('డ', '|'), ('ర', 'U'), ('మ్మ', '|'), ('మీ', 'U'), ('ర', '|'), ('లే', 'U'), ('ది', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('దే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బి', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వ', '|'), ('న', '|'), ('క్రి', '|'), ('య', '|'), ('ల', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('యొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', 'U'), ('క్షి', '|'), ('దో', 'U'), ('ష', '|'), ('మొ', '|'), ('న', '|'), ('రు', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('సో', 'U'), ('కు', '|'), ('గ్ర', '|'), ('హ', '|'), ('సం', 'U'), ('స', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('గా', 'U'), ('లి', '|'), ('ము', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('మొ', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('యొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', 'U'), ('క్షి', '|'), ('దో', 'U'), ('ష', '|'), ('మొ', '|'), ('న', '|'), ('రు', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('సో', 'U'), ('కు', '|'), ('గ్ర', '|'), ('హ', '|'), ('సం', 'U'), ('స', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('గా', 'U'), ('లి', '|'), ('ము', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('ర', 'U'), ('క్ష', '|'), ('రే', 'U'), ('కు', '|'), ('మొ', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('రు', '|'), ('డు', '|'), ('చ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('పు', '|'), ('బొం', 'U'), ('క', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('ర్ఘ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('న', '|'), ('వి', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('తి', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చుం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('త్మ', '|'), ('జుం', 'U'), ('డు', '|'), ('బ', 'U'), ('ల్వ', '|'), ('ర', '|'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పు', '|'), ('రు', '|'), ('డు', '|'), ('చ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('పు', '|'), ('బొం', 'U'), ('క', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('ర్ఘ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('న', '|'), ('వి', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('తి', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చుం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('త్మ', '|'), ('జుం', 'U'), ('డు', '|'), ('బ', 'U'), ('ల్వ', '|'), ('ర', '|'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ల', '|'), ('పు', '|'), ('రు', '|'), ('డీ', 'U'), ('గు', '|'), ('దా', 'U'), ('క', '|'), ('బ', '|'), ('లు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('ను', '|'), ('మూ', 'U'), ('ల', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ', '|'), ('రు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దా', 'U'), ('కు', '|'), ('ని', 'U'), ('మ్ము', '|'), ('ల', '|'), ('న', '|'), ('ని', '|'), ('దా', 'U'), ('చి', '|'), ('గా', 'U'), ('లి', '|'), ('తె', '|'), ('ఱ', '|'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('పెం', 'U'), ('పు', '|'), ('టిం', 'U'), ('తు', '|'), ('ల', '|'), ('ప', '|'), ('యి', '|'), ('గా', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('నె', '|'), ('ల', '|'), ('పు', '|'), ('రు', '|'), ('డీ', 'U'), ('గు', '|'), ('దా', 'U'), ('క', '|'), ('బ', '|'), ('లు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('ను', '|'), ('మూ', 'U'), ('ల', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ', '|'), ('రు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('ప', 'U'), ('ట్టి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దా', 'U'), ('కు', '|'), ('ని', 'U'), ('మ్ము', '|'), ('ల', '|'), ('న', '|'), ('ని', '|'), ('దా', 'U'), ('చి', '|'), ('గా', 'U'), ('లి', '|'), ('తె', '|'), ('ఱ', '|'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('పెం', 'U'), ('పు', '|'), ('టిం', 'U'), ('తు', '|'), ('ల', '|'), ('ప', '|'), ('యి', '|'), ('గా', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నూ', 'U'), ('రి', '|'), ('పో', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('ల', '|'), ('నీ', 'U'), ('య', '|'), ('దు', '|'), ('బో', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పా', 'U'), ('లి', '|'), ('డు', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చో', 'U'), ('గ', '|'), ('సు', '|'), ('రు', '|'), ('దా', 'U'), ('కె', '|'), ('న', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('కుం', 'U'), ('దు', '|'), ('బు', '|'), ('త్ర', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('తి', '|'), ('నా', 'U'), ('ట', '|'), ('నా', 'U'), ('ట', '|'), ('ని', '|'), ('టు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నూ', 'U'), ('రి', '|'), ('పో', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('ల', '|'), ('నీ', 'U'), ('య', '|'), ('దు', '|'), ('బో', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పా', 'U'), ('లి', '|'), ('డు', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చో', 'U'), ('గ', '|'), ('సు', '|'), ('రు', '|'), ('దా', 'U'), ('కె', '|'), ('న', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('కుం', 'U'), ('దు', '|'), ('బు', '|'), ('త్ర', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('తి', '|'), ('నా', 'U'), ('ట', '|'), ('నా', 'U'), ('ట', '|'), ('ని', '|'), ('టు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ర', '|'), ('సి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మి', '|'), ('హి', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('గ్ర', '|'), ('హ', '|'), ('చ', '|'), ('యా', 'U'), ('భి', '|'), ('మ', '|'), ('తు', 'U'), ('ల్ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ప్రో', 'U'), ('వ', '|'), ('వ', 'U'), ('మ్మ', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నం', 'U'), ('జ', '|'), ('లు', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ర', '|'), ('సి', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మి', '|'), ('హి', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('గ్ర', '|'), ('హ', '|'), ('చ', '|'), ('యా', 'U'), ('భి', '|'), ('మ', '|'), ('తు', 'U'), ('ల్ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ప్రో', 'U'), ('వ', '|'), ('వ', 'U'), ('మ్మ', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నం', 'U'), ('జ', '|'), ('లు', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్గ', '|'), ('డు', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('బూ', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('హి', '|'), ('మ', '|'), ('నీ', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ర', '|'), ('భ', '|'), ('ము', '|'), ('దా', 'U'), ('రి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('న్వ', '|'), ('యా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('బొం', 'U'), ('గు', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ల', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱు', '|'), ('నం', 'U'), ('త', '|'), ('ద', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్గ', '|'), ('డు', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('బూ', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('హి', '|'), ('మ', '|'), ('నీ', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ర', '|'), ('భ', '|'), ('ము', '|'), ('దా', 'U'), ('రి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('న్వ', '|'), ('యా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('బొం', 'U'), ('గు', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ల', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('మా', 'U'), ('త్మ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కా', 'U'), ('ము', '|'), ('ద', '|'), ('ము', 'U'), ('గ్గి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('మీ', 'U'), ('ద', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('క్కు', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('లు', '|'), ('చం', 'U'), ('క', '|'), ('లు', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('ను', '|'), ('చే', 'U'), ('తు', '|'), ('లా', 'U'), ('ది', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('యు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('మా', 'U'), ('త్మ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కా', 'U'), ('ము', '|'), ('ద', '|'), ('ము', 'U'), ('గ్గి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('మీ', 'U'), ('ద', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('క్కు', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('లు', '|'), ('చం', 'U'), ('క', '|'), ('లు', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('ను', '|'), ('చే', 'U'), ('తు', '|'), ('లా', 'U'), ('ది', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('మొం', 'U'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('యు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('పి', '|'), ('డి', '|'), ('కి', '|'), ('లి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('వే', 'U'), ('ళ', '|'), ('ద', '|'), ('ను', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నో', 'U'), ('ర', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('యె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నూ', 'U'), ('కు', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('ను', '|'), ('దో', 'U'), ('గు', '|'), ('లా', 'U'), ('డు', '|'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ్రే', 'U'), ('మ', '|'), ('బల్', 'U'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పి', '|'), ('డి', '|'), ('కి', '|'), ('లి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('వే', 'U'), ('ళ', '|'), ('ద', '|'), ('ను', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నో', 'U'), ('ర', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('యె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('నూ', 'U'), ('కు', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('ను', '|'), ('దో', 'U'), ('గు', '|'), ('లా', 'U'), ('డు', '|'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ్రే', 'U'), ('మ', '|'), ('బల్', 'U'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('బా', 'U'), ('లు', '|'), ('ని', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('యొ', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('ల', '|'), ('నెం', 'U'), ('త', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మై', 'U'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('మా', 'U'), ('త్ర', '|'), ('మం', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('నా', 'U'), ('థు', '|'), ('న', '|'), ('కున్', 'U'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చున్', 'U'), ('లీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('యో', 'U'), ('గు', '|'), ('లం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('బా', 'U'), ('లు', '|'), ('ని', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('యొ', '|'), ('రు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('ల', '|'), ('నెం', 'U'), ('త', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మై', 'U'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('మా', 'U'), ('త్ర', '|'), ('మం', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('నా', 'U'), ('థు', '|'), ('న', '|'), ('కు', 'U'), ('న్దె', '|'), ('లి', '|'), ('యం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చున్', 'U'), ('లీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('యో', 'U'), ('గు', '|'), ('లం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('న', '|'), ('మ', '|'), ('తి', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('ద', '|'), ('నొ', '|'), ('క', '|'), ('మం', 'U'), ('చి', '|'), ('ము', '|'), ('హూ', 'U'), ('ర్త', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('ను', '|'), ('వ', '|'), ('మ', '|'), ('రం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('న', 'U'), ('న్న', '|'), ('ము', '|'), ('ము', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డిం', 'U'), ('పె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('క', '|'), ('టం', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('నం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('నూ', 'U'), ('హ', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('న', '|'), ('యం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('మ', '|'), ('న', '|'), ('మ', '|'), ('తి', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('ద', '|'), ('నొ', '|'), ('క', '|'), ('మం', 'U'), ('చి', '|'), ('ము', '|'), ('హూ', 'U'), ('ర్త', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('ను', '|'), ('వ', '|'), ('మ', '|'), ('రం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('న', 'U'), ('న్న', '|'), ('ము', '|'), ('ము', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డిం', 'U'), ('పె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('క', '|'), ('టం', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('నం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('నూ', 'U'), ('హ', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('న', '|'), ('యం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('లు', '|'), ('ద', '|'), ('కం', 'U'), ('బు', '|'), ('దే', 'U'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('నూ', 'U'), ('ని', '|'), ('య', '|'), ('దో', 'U'), ('గ', '|'), ('నం', 'U'), ('టు', '|'), ('చో', 'U'), ('ద', '|'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్చి', '|'), ('బ', '|'), ('లు', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('ద', '|'), ('డి', '|'), ('యొ', 'U'), ('త్తి', '|'), ('మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ది', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('చు', 'U'), ('క్క', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('లె', '|'), ('దీ', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('లు', '|'), ('ద', '|'), ('కం', 'U'), ('బు', '|'), ('దే', 'U'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('నూ', 'U'), ('ని', '|'), ('య', '|'), ('దో', 'U'), ('గ', '|'), ('నం', 'U'), ('టు', '|'), ('చో', 'U'), ('ద', '|'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్చి', '|'), ('బ', '|'), ('లు', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('ద', '|'), ('డి', '|'), ('యొ', 'U'), ('త్తి', '|'), ('మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ది', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('చు', 'U'), ('క్క', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('లె', '|'), ('దీ', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('ఇం', 'U'), ('తు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('మీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('స', '|'), ('రు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('నా', 'U'), ('రు', '|'), ('మీ', 'U'), ('రు', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్క', '|'), ('గ', '|'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('జి', '|'), ('కి', 'U'), ('త్స', '|'), ('దో', 'U'), ('ప', '|'), ('నిం', 'U'), ('తం', 'U'), ('త', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ము', '|'), ('లా', 'U'), ('ర', '|'), ('యు', '|'), ('చున్', 'U'), ('గ', '|'), ('డు', '|'), ('బ్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ధ', 'U'), ('న్వం', 'U'), ('త', '|'), ('రి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ఇం', 'U'), ('తు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('మీ', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('స', '|'), ('రు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('నా', 'U'), ('రు', '|'), ('మీ', 'U'), ('రు', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('బ', 'U'), ('ల్క', '|'), ('గ', '|'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('జి', '|'), ('కి', 'U'), ('త్స', '|'), ('దో', 'U'), ('ప', '|'), ('నిం', 'U'), ('తం', 'U'), ('త', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ము', '|'), ('లా', 'U'), ('ర', '|'), ('యు', '|'), ('చు', 'U'), ('న్గ', '|'), ('డు', '|'), ('బ్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ధ', 'U'), ('న్వం', 'U'), ('త', '|'), ('రి', '|'), ('యో', 'U'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('భా', 'U'), ('వ', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('మూ', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('దీ', 'U'), ('వె', '|'), ('ల', '|'), ('నూ', 'U'), ('క', '|'), ('చి', 'U'), ('ట్టు', '|'), ('డు', '|'), ('కు', '|'), ('దీ', 'U'), ('సి', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('ఘృ', '|'), ('తో', 'U'), ('చి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('వే', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధా', 'U'), ('ర', '|'), ('ల', '|'), ('మే', 'U'), ('ను', '|'), ('గ', '|'), ('డిం', 'U'), ('గి', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('భా', 'U'), ('వ', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('మూ', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('దీ', 'U'), ('వె', '|'), ('ల', '|'), ('నూ', 'U'), ('క', '|'), ('చి', 'U'), ('ట్టు', '|'), ('డు', '|'), ('కు', '|'), ('దీ', 'U'), ('సి', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('ఘృ', '|'), ('తో', 'U'), ('చి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('వే', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధా', 'U'), ('ర', '|'), ('ల', '|'), ('మే', 'U'), ('ను', '|'), ('గ', '|'), ('డిం', 'U'), ('గి', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('జో', 'U'), ('ల', '|'), ('బా', 'U'), ('డు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('క్షీ', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('ర్క', '|'), ('రా', 'U'), ('న్న', '|'), ('ము', '|'), ('ను', '|'), ('జి', 'U'), ('క్క', '|'), ('ని', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పె', '|'), ('రుం', 'U'), ('గు', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మె', '|'), ('త', '|'), ('గా', 'U'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మో', 'U'), ('ర', '|'), ('హి', '|'), ('లే', 'U'), ('క', '|'), ('ము', 'U'), ('ట్ట', '|'), ('డ', '|'), ('ని', '|'), ('మో', 'U'), ('మ', '|'), ('ఱ', '|'), ('వాం', 'U'), ('చు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', 'U'), ('య్య', '|'), ('గా', 'U'), ('రా', 'U'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్చు', '|'), ('చు', '|'), ('ను', '|'), ('రా', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క్షీ', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('ర్క', '|'), ('రా', 'U'), ('న్న', '|'), ('ము', '|'), ('ను', '|'), ('జి', 'U'), ('క్క', '|'), ('ని', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పె', '|'), ('రుం', 'U'), ('గు', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మె', '|'), ('త', '|'), ('గా', 'U'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మో', 'U'), ('ర', '|'), ('హి', '|'), ('లే', 'U'), ('క', '|'), ('ము', 'U'), ('ట్ట', '|'), ('డ', '|'), ('ని', '|'), ('మో', 'U'), ('మ', '|'), ('ఱ', '|'), ('వాం', 'U'), ('చు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', 'U'), ('య్య', '|'), ('గా', 'U'), ('రా', 'U'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్చు', '|'), ('చు', '|'), ('ను', '|'), ('రా', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('చి', '|'), ('త్ర', '|'), ('ము', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('వెం', 'U'), ('డి', '|'), ('గి', 'U'), ('న్నె', '|'), ('లో', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('ను', '|'), ('మీ', 'U'), ('తి', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('బూ', 'U'), ('చి', '|'), ('వా', 'U'), ('ని', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మి', '|'), ('దె', '|'), ('పి', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ళి', '|'), ('కిం', 'U'), ('చు', '|'), ('చు', '|'), ('గా', 'U'), ('కి', '|'), ('కి', '|'), ('వే', 'U'), ('తు', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('బి', '|'), ('ర', '|'), ('బి', '|'), ('ర', '|'), ('చే', 'U'), ('తి', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('చి', '|'), ('త్ర', '|'), ('ము', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('వెం', 'U'), ('డి', '|'), ('గి', 'U'), ('న్నె', '|'), ('లో', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('బు', 'U'), ('వ్వ', '|'), ('ది', '|'), ('ను', '|'), ('మీ', 'U'), ('తి', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('బూ', 'U'), ('చి', '|'), ('వా', 'U'), ('ని', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మి', '|'), ('దె', '|'), ('పి', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ళి', '|'), ('కిం', 'U'), ('చు', '|'), ('చు', '|'), ('గా', 'U'), ('కి', '|'), ('కి', '|'), ('వే', 'U'), ('తు', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('బి', '|'), ('ర', '|'), ('బి', '|'), ('ర', '|'), ('చే', 'U'), ('తి', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ది', '|'), ('ని', '|'), ('పిం', 'U'), ('చె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చున్', 'U'), ('గు', '|'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లె', 'U'), ('వ్వి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('తే', 'U'), ('ని', '|'), ('పా', 'U'), ('ల', '|'), ('రు', '|'), ('గ', '|'), ('వు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కం', 'U'), ('చు', '|'), ('వి', '|'), ('హి', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ముం', 'U'), ('గ', '|'), ('బ', '|'), ('ళిం', 'U'), ('చు', '|'), ('చో', 'U'), ('బ', '|'), ('రా', 'U'), ('త్ప', '|'), ('రు', '|'), ('ని', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('ల', 'U'), ('ట్లు', '|'), ('సు', '|'), ('త', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టు', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ప', 'U'), ('థ్య', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('యి', '|'), ('ల', '|'), ('సుం', 'U'), ('ద', '|'), ('రి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చు', 'U'), ('న్గు', '|'), ('రు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లె', 'U'), ('వ్వి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('తే', 'U'), ('ని', '|'), ('పా', 'U'), ('ల', '|'), ('రు', '|'), ('గ', '|'), ('వు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('కం', 'U'), ('చు', '|'), ('వి', '|'), ('హి', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ముం', 'U'), ('గ', '|'), ('బ', '|'), ('ళిం', 'U'), ('చు', '|'), ('చో', 'U'), ('బ', '|'), ('రా', 'U'), ('త్ప', '|'), ('రు', '|'), ('ని', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('ల', 'U'), ('ట్లు', '|'), ('సు', '|'), ('త', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టు', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ప', 'U'), ('థ్య', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('యి', '|'), ('ల', '|'), ('సుం', 'U'), ('ద', '|'), ('రి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('నె', '|'), ('డ', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('డ్డ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('నిం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('క్రు', 'U'), ('చ్చి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చు', '|'), ('జె', 'U'), ('క్కి', '|'), ('లి', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చు', '|'), ('బా', 'U'), ('యి', '|'), ('ద్రా', 'U'), ('వ', '|'), ('రా', 'U'), ('రా', 'U'), ('క', '|'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('యం', 'U'), ('చ', '|'), ('ని', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('క', '|'), ('లి', '|'), ('తో', 'U'), ('క్తి', '|'), ('జ', 'U'), ('న్గు', '|'), ('డు', '|'), ('పు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ఆ', 'U'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('నె', '|'), ('డ', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('డ్డ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('నిం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('క్రు', 'U'), ('చ్చి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('చు', '|'), ('జె', 'U'), ('క్కి', '|'), ('లి', '|'), ('దు', 'U'), ('వ్వు', '|'), ('చు', '|'), ('బా', 'U'), ('యి', '|'), ('ద్రా', 'U'), ('వ', '|'), ('రా', 'U'), ('రా', 'U'), ('క', '|'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('యం', 'U'), ('చ', '|'), ('ని', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('నిం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('క', '|'), ('లి', '|'), ('తో', 'U'), ('క్తి', '|'), ('జ', 'U'), ('న్గు', '|'), ('డు', '|'), ('పు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ముం', 'U'), ('గి', '|'), ('ట', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('జ్ఞ', '|'), ('తన్', 'U'), ('బ', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('చిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్న', '|'), ('డు', '|'), ('వ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డె', '|'), ('న', 'U'), ('న్న', '|'), ('కు', '|'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', '|'), ('చే', 'U'), ('డ్ప', '|'), ('డ', '|'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కున్', 'U'), ('ద', '|'), ('న', '|'), ('వ్రే', 'U'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ముం', 'U'), ('గి', '|'), ('ట', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ట', '|'), ('డుం', 'U'), ('గి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('జ్ఞ', '|'), ('తన్', 'U'), ('బ', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('చిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్న', '|'), ('డు', '|'), ('వ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డె', '|'), ('న', 'U'), ('న్న', '|'), ('కు', '|'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', '|'), ('చే', 'U'), ('డ్ప', '|'), ('డ', '|'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కు', 'U'), ('న్ద', '|'), ('న', '|'), ('వ్రే', 'U'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('బా', 'U'), ('లు', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కా', 'U'), ('ట', '|'), ('ల', '|'), ('కే', 'U'), ('గి', '|'), ('యు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డి', '|'), ('దే', 'U'), ('మొ', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ద', 'U'), ('త్త', '|'), ('ఱ', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('నా', 'U'), ('వ', '|'), ('తా', 'U'), ('గి', '|'), ('న', 'U'), ('ట్ల', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('త్మ', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ద', '|'), ('దా', 'U'), ('గ', '|'), ('మ', '|'), ('నా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('క', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('బా', 'U'), ('లు', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('కా', 'U'), ('ట', '|'), ('ల', '|'), ('కే', 'U'), ('గి', '|'), ('యు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డి', '|'), ('దే', 'U'), ('మొ', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ద', 'U'), ('త్త', '|'), ('ఱ', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('నా', 'U'), ('వ', '|'), ('తా', 'U'), ('గి', '|'), ('న', 'U'), ('ట్ల', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('త్మ', '|'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('ద', '|'), ('దా', 'U'), ('గ', '|'), ('మ', '|'), ('నా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('క', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('నా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('జా', 'U'), ('చు', '|'), ('చు', '|'), ('సం', 'U'), ('దు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('బ', '|'), ('రు', '|'), ('గు', '|'), ('లు', '|'), ('పా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('ప', '|'), ('శు', '|'), ('బా', 'U'), ('ధ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('సా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('ణి', '|'), ('వా', 'U'), ('స', '|'), ('మ', '|'), ('టు', '|'), ('ద్రో', 'U'), ('సి', '|'), ('బ', '|'), ('హి', 'U'), ('స్థ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('యం', 'U'), ('త', '|'), ('నా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గే', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('యె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('నా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('జా', 'U'), ('చు', '|'), ('చు', '|'), ('సం', 'U'), ('దు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('బ', '|'), ('రు', '|'), ('గు', '|'), ('లు', '|'), ('పా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('ప', '|'), ('శు', '|'), ('బా', 'U'), ('ధ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('సా', 'U'), ('తు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('ణి', '|'), ('వా', 'U'), ('స', '|'), ('మ', '|'), ('టు', '|'), ('ద్రో', 'U'), ('సి', '|'), ('బ', '|'), ('హి', 'U'), ('స్థ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('యం', 'U'), ('త', '|'), ('నా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గే', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('యె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱిన్', 'U'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('లు', '|'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('రి', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('ము', '|'), ('రి', '|'), ('పం', 'U'), ('పు', '|'), ('బెం', 'U'), ('పు', '|'), ('నె', '|'), ('ఱ', '|'), ('బా', 'U'), ('ధ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వే', 'U'), ('స', '|'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('ని', '|'), ('తో', 'U'), ('ధి', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('గ', 'U'), ('న్వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('బా', 'U'), ('ళి', '|'), ('లో', 'U'), ('బొ', '|'), ('డ', '|'), ('మి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱి', 'U'), ('న్గ', '|'), ('ని', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('లు', '|'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('రి', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('ము', '|'), ('రి', '|'), ('పం', 'U'), ('పు', '|'), ('బెం', 'U'), ('పు', '|'), ('నె', '|'), ('ఱ', '|'), ('బా', 'U'), ('ధ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వే', 'U'), ('స', '|'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('ని', '|'), ('తో', 'U'), ('ధి', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('గ', 'U'), ('న్వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('బా', 'U'), ('ళి', '|'), ('లో', 'U'), ('బొ', '|'), ('డ', '|'), ('మి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('న', '|'), ('వి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ఱు', '|'), ('నె', '|'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('చు', 'U'), ('న్న', '|'), ('వి', '|'), ('ని', '|'), ('తా', 'U'), ('గ', '|'), ('న', '|'), ('కం', 'U'), ('బొ', '|'), ('డి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('ను', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దీ', 'U'), ('యు', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('గు', '|'), ('డి', '|'), ('పిం', 'U'), ('చి', '|'), ('మై', 'U'), ('ని', '|'), ('వు', '|'), ('రు', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('వి', '|'), ('న', '|'), ('వి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ఱు', '|'), ('నె', '|'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('చు', 'U'), ('న్న', '|'), ('వి', '|'), ('ని', '|'), ('తా', 'U'), ('గ', '|'), ('న', '|'), ('కం', 'U'), ('బొ', '|'), ('డి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('ను', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('దీ', 'U'), ('యు', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('గు', '|'), ('డి', '|'), ('పిం', 'U'), ('చి', '|'), ('మై', 'U'), ('ని', '|'), ('వు', '|'), ('రు', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('గు', '|'), ('న', '|'), ('గు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ప్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('నె', '|'), ('ఱ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('గే', 'U'), ('వ', '|'), ('ల', '|'), ('ము', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('త', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('జ', '|'), ('ని', '|'), ('త', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సా', 'U'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('క', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లెం', 'U'), ('చ', '|'), ('ని', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('ప్సి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('శా', 'U'), ('లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('గు', '|'), ('న', '|'), ('గు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ప్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('నె', '|'), ('ఱ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('గే', 'U'), ('వ', '|'), ('ల', '|'), ('ము', 'U'), ('న్మ', '|'), ('ది', '|'), ('సొ', 'U'), ('క్కి', '|'), ('త', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('జ', '|'), ('ని', '|'), ('త', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సా', 'U'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('క', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లెం', 'U'), ('చ', '|'), ('ని', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('ప్సి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('శా', 'U'), ('లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('ర', '|'), ('చి', '|'), ('ఱు', '|'), ('త', 'U'), ('న్మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('ని', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('బి', '|'), ('డ', '|'), ('చా', 'U'), ('డి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('మ', '|'), ('ఱి', '|'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('ని', '|'), ('మం', 'U'), ('చి', '|'), ('కి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('బో', 'U'), ('లు', '|'), ('మా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బొం', 'U'), ('కి', '|'), ('ని', '|'), ('జా', 'U'), ('ల', '|'), ('య', '|'), ('సీ', 'U'), ('మ', '|'), ('జే', 'U'), ('రి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పె', '|'), ('ర', '|'), ('చి', '|'), ('ఱు', '|'), ('త', 'U'), ('న్మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('ని', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('బి', '|'), ('డ', '|'), ('చా', 'U'), ('డి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('మ', '|'), ('ఱి', '|'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('ని', '|'), ('మం', 'U'), ('చి', '|'), ('కి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('బో', 'U'), ('లు', '|'), ('మా', 'U'), ('బు', '|'), ('రు', '|'), ('క', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బొం', 'U'), ('కి', '|'), ('ని', '|'), ('జా', 'U'), ('ల', '|'), ('య', '|'), ('సీ', 'U'), ('మ', '|'), ('జే', 'U'), ('రి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('కొం', 'U'), ('టె', '|'), ('చే', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('య', '|'), ('హో', 'U'), ('బె', '|'), ('ద', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('లే', 'U'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('ని', '|'), ('యా', 'U'), ('జ్ఞ', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('రా', 'U'), ('ద', '|'), ('ట', 'U'), ('న్న', '|'), ('వా', 'U'), ('గ్ధ', '|'), ('న', '|'), ('మ', '|'), ('టు', '|'), ('డిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('దం', 'U'), ('డ', '|'), ('న', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('య', 'U'), ('డ్డ', '|'), ('ముం', 'U'), ('జ', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('నె', '|'), ('ఱ', '|'), ('జా', 'U'), ('ణ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('కొం', 'U'), ('టె', '|'), ('చే', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('య', '|'), ('హో', 'U'), ('బె', '|'), ('ద', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('లే', 'U'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('జా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('ని', '|'), ('యా', 'U'), ('జ్ఞ', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('రా', 'U'), ('ద', '|'), ('ట', 'U'), ('న్న', '|'), ('వా', 'U'), ('గ్ధ', '|'), ('న', '|'), ('మ', '|'), ('టు', '|'), ('డిం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('దం', 'U'), ('డ', '|'), ('న', '|'), ('పా', 'U'), ('ల్ప', '|'), ('డ', '|'), ('నీ', 'U'), ('క', '|'), ('య', 'U'), ('డ్డ', '|'), ('ముం', 'U'), ('జ', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('నె', '|'), ('ఱ', '|'), ('జా', 'U'), ('ణ', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('భా', 'U'), ('వ', '|'), ('మొ', '|'), ('క', '|'), ('దా', 'U'), ('రి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('రా', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('డు', '|'), ('ఠా', 'U'), ('యి', '|'), ('జె', '|'), ('లం', 'U'), ('గె', '|'), ('డు', '|'), ('శౌ', 'U'), ('రి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('గా', 'U'), ('వ', '|'), ('డి', '|'), ('నా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('చో', 'U'), ('ఫ', '|'), ('ల', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('డె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('భా', 'U'), ('వ', '|'), ('మొ', '|'), ('క', '|'), ('దా', 'U'), ('రి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('రా', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('డు', '|'), ('ఠా', 'U'), ('యి', '|'), ('జె', '|'), ('లం', 'U'), ('గె', '|'), ('డు', '|'), ('శౌ', 'U'), ('రి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్వి', '|'), ('నె', '|'), ('డు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('గా', 'U'), ('వ', '|'), ('డి', '|'), ('నా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('చో', 'U'), ('ఫ', '|'), ('ల', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('డె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('బ', 'U'), ('ల్కె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('జా', 'U'), ('తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('ద', '|'), ('ముల్', 'U'), ('ఘ', '|'), ('టి', '|'), ('యిం', 'U'), ('ప', '|'), ('భ', 'U'), ('ర్త', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('వి', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('చు', '|'), ('మం', 'U'), ('చి', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('నం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('డు', '|'), ('యో', 'U'), ('గ్యు', '|'), ('డ', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('జా', 'U'), ('తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('ద', '|'), ('ము', 'U'), ('ల్ఘ', '|'), ('టి', '|'), ('యిం', 'U'), ('ప', '|'), ('భ', 'U'), ('ర్త', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('వి', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('చు', '|'), ('మం', 'U'), ('చి', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('నం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('డు', '|'), ('యో', 'U'), ('గ్యు', '|'), ('డ', '|'), ('ట', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('తి', '|'), ('ను', '|'), ('కు', '|'), ('చు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పా', 'U'), ('లు', '|'), ('పో', 'U'), ('యు', '|'), ('మ', '|'), ('ను', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్మ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('డ', '|'), ('జే', 'U'), ('సి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('తి', '|'), ('ను', '|'), ('కు', '|'), ('చు', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పా', 'U'), ('లు', '|'), ('పో', 'U'), ('యు', '|'), ('మ', '|'), ('ను', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్మ', '|'), ('నం', 'U'), ('బ', '|'), ('ను', '|'), ('వ', '|'), ('డ', '|'), ('జే', 'U'), ('సి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('ట', '|'), ('బు', '|'), ('త్రు', '|'), ('న', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కి', '|'), ('మై', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('నె', 'U'), ('క్కొ', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('ట', '|'), ('బు', '|'), ('త్రు', '|'), ('న', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కి', '|'), ('మై', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('నె', 'U'), ('క్కొ', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ల', '|'), ('స', '|'), ('ట', '|'), ('వే', 'U'), ('స', '|'), ('టల్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కా', 'U'), ('క', '|'), ('లి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మై', 'U'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('త్రు', '|'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('లు', '|'), ('తో', 'U'), ('డి', '|'), ('చె', '|'), ('లు', 'U'), ('ల్మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ద', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('క', 'U'), ('ర్మ', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('ర్తృ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('మిం', 'U'), ('త', '|'), ('కుం', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('ల', '|'), ('స', '|'), ('ట', '|'), ('వే', 'U'), ('స', '|'), ('ట', 'U'), ('ల్ద', '|'), ('ల', '|'), ('ప', '|'), ('కా', 'U'), ('క', '|'), ('లి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('యా', 'U'), ('శ', '|'), ('మై', 'U'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('త్రు', '|'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('లు', '|'), ('తో', 'U'), ('డి', '|'), ('చె', '|'), ('లు', 'U'), ('ల్మ', '|'), ('ది', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ద', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('క', 'U'), ('ర్మ', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('ర్తృ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('మిం', 'U'), ('త', '|'), ('కుం', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్ద', '|'), ('న', '|'), ('రు', '|'), ('జా', 'U'), ('డ', '|'), ('గ', '|'), ('లుం', 'U'), ('గ', '|'), ('ను', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('పు', '|'), ('మ', '|'), ('ని', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('ని', '|'), ('జే', 'U'), ('శు', '|'), ('తో', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వి', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('పు', '|'), ('డో', 'U'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('తు', '|'), ('వం', 'U'), ('చు', '|'), ('గు', '|'), ('తు', '|'), ('కం', 'U'), ('ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్ద', '|'), ('న', '|'), ('రు', '|'), ('జా', 'U'), ('డ', '|'), ('గ', '|'), ('లుం', 'U'), ('గ', '|'), ('ను', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('పు', '|'), ('మ', '|'), ('ని', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('ని', '|'), ('జే', 'U'), ('శు', '|'), ('తో', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బ', 'U'), ('ల్కి', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('వి', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('పు', '|'), ('డో', 'U'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('తు', '|'), ('వం', 'U'), ('చు', '|'), ('గు', '|'), ('తు', '|'), ('కం', 'U'), ('ప', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('లు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', '|'), ('రా', 'U'), ('కు', '|'), ('మా', 'U'), ('ని', '|'), ('మా', 'U'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కి', 'U'), ('ప్డు', '|'), ('వి', 'U'), ('ద్య', '|'), ('బ', '|'), ('హు', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('పె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('ల', '|'), ('నొ', '|'), ('సం', 'U'), ('గు', '|'), ('వ', 'U'), ('స్తు', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('థు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('బ', 'U'), ('ల్మా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', 'U'), ('ట్టి', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('లు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', '|'), ('రా', 'U'), ('కు', '|'), ('మా', 'U'), ('ని', '|'), ('మా', 'U'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కి', 'U'), ('ప్డు', '|'), ('వి', 'U'), ('ద్య', '|'), ('బ', '|'), ('హు', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('పె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('ల', '|'), ('నొ', '|'), ('సం', 'U'), ('గు', '|'), ('వ', 'U'), ('స్తు', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('థు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('బ', 'U'), ('ల్మా', 'U'), ('లి', '|'), ('మి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', 'U'), ('ట్టి', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('నీ', 'U'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('జా', 'U'), ('మ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('త్తు', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('దో', 'U'), ('వ', '|'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('డ', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('మే', 'U'), ('ల్పొ', '|'), ('ద', '|'), ('ల', '|'), ('గ', '|'), ('బు', 'U'), ('జ్జ', '|'), ('గిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బం', 'U'), ('పి', '|'), ('తా', 'U'), ('బ', '|'), ('ద', '|'), ('ప', '|'), ('డి', '|'), ('త్రో', 'U'), ('వ', '|'), ('లో', 'U'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('నీ', 'U'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('జా', 'U'), ('మ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('త్తు', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('దో', 'U'), ('వ', '|'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('డ', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('మే', 'U'), ('ల్పొ', '|'), ('ద', '|'), ('ల', '|'), ('గ', '|'), ('బు', 'U'), ('జ్జ', '|'), ('గిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('బొం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బం', 'U'), ('పి', '|'), ('తా', 'U'), ('బ', '|'), ('ద', '|'), ('ప', '|'), ('డి', '|'), ('త్రో', 'U'), ('వ', '|'), ('లో', 'U'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('ద్రో', 'U'), ('వ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లు', '|'), ('చి', 'U'), ('న్న', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ది', 'U'), ('ట్ట', '|'), ('ముం', 'U'), ('బ', '|'), ('ఱు', '|'), ('చు', '|'), ('చో', 'U'), ('ని', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('ను', '|'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('పో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డా', 'U'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('దిన్', 'U'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('పి', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('బ', '|'), ('ఱ', '|'), ('చు', '|'), ('ద', '|'), ('నం', 'U'), ('త', '|'), ('టన్', 'U'), ('బ', '|'), ('డి', '|'), ('కి', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చి', '|'), ('ఱు', '|'), ('త', '|'), ('ను', '|'), ('ద్రో', 'U'), ('వ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లు', '|'), ('చి', 'U'), ('న్న', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ది', 'U'), ('ట్ట', '|'), ('ముం', 'U'), ('బ', '|'), ('ఱు', '|'), ('చు', '|'), ('చో', 'U'), ('ని', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('ను', '|'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('పో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డా', 'U'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', 'U'), ('న్ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('పి', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('బ', '|'), ('ఱ', '|'), ('చు', '|'), ('ద', '|'), ('నం', 'U'), ('త', '|'), ('ట', 'U'), ('న్బ', '|'), ('డి', '|'), ('కి', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('రా', 'U'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('చి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మో', 'U'), ('వి', '|'), ('ప', '|'), ('యి', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('గ', '|'), ('నీ', 'U'), ('వి', '|'), ('పు', '|'), ('డే', 'U'), ('మి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('మ', '|'), ('ఱు', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('సే', 'U'), ('సి', '|'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('ది', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('టం', 'U'), ('చ', '|'), ('ని', '|'), ('రా', 'U'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('చి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మో', 'U'), ('వి', '|'), ('ప', '|'), ('యి', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('గ', '|'), ('నీ', 'U'), ('వి', '|'), ('పు', '|'), ('డే', 'U'), ('మి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('మ', '|'), ('ఱు', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('సే', 'U'), ('సి', '|'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('ది', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('వ్వ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ఱి', '|'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('వు', '|'), ('నె', '|'), ('డ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ము', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('టు', '|'), ('నో', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('గో', 'U'), ('వు', '|'), ('లే', 'U'), ('మ', '|'), ('యి', '|'), ('న', '|'), ('మీ', 'U'), ('ది', '|'), ('కి', '|'), ('జే', 'U'), ('డ్వ', '|'), ('డి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నో', 'U'), ('య', '|'), ('టం', 'U'), ('చ', '|'), ('ఱి', '|'), ('ము', '|'), ('రి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱిం', 'U'), ('బ', '|'), ('ని', '|'), ('చి', '|'), ('యా', 'U'), ('ద', '|'), ('ట', '|'), ('దా', 'U'), ('ను', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('నెం', 'U'), ('చు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('ర', '|'), ('హి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('మ', '|'), ('ఱి', '|'), ('బ', '|'), ('డి', '|'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('వు', '|'), ('నె', '|'), ('డ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ము', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('టు', '|'), ('నో', 'U'), ('మె', '|'), ('ఱ', '|'), ('వ', '|'), ('డి', '|'), ('గో', 'U'), ('వు', '|'), ('లే', 'U'), ('మ', '|'), ('యి', '|'), ('న', '|'), ('మీ', 'U'), ('ది', '|'), ('కి', '|'), ('జే', 'U'), ('డ్వ', '|'), ('డి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నో', 'U'), ('య', '|'), ('టం', 'U'), ('చ', '|'), ('ఱి', '|'), ('ము', '|'), ('రి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱిం', 'U'), ('బ', '|'), ('ని', '|'), ('చి', '|'), ('యా', 'U'), ('ద', '|'), ('ట', '|'), ('దా', 'U'), ('ను', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('నెం', 'U'), ('చు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('ర', '|'), ('హి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జ', 'U'), ('య్య', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('డు', '|'), ('కె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('గుం', 'U'), ('భి', '|'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('దుం', 'U'), ('దు', '|'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('ఱి', '|'), ('కం', 'U'), ('బె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('జి', '|'), ('డ', '|'), ('జి', '|'), ('డ', '|'), ('మా', 'U'), ('ని', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('చి', 'U'), ('ప్పి', '|'), ('ల', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('నన్', 'U'), ('దొ', '|'), ('డ', '|'), ('బ', '|'), ('డి', '|'), ('ప్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కొ', '|'), ('డు', '|'), ('కె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('గుం', 'U'), ('భి', '|'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('దుం', 'U'), ('దు', '|'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('ఱి', '|'), ('కం', 'U'), ('బె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్మ', '|'), ('దిన్', 'U'), ('జి', '|'), ('డ', '|'), ('జి', '|'), ('డ', '|'), ('మా', 'U'), ('ని', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('చి', 'U'), ('ప్పి', '|'), ('ల', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('నన్', 'U'), ('దొ', '|'), ('డ', '|'), ('బ', '|'), ('డి', '|'), ('ప్రో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('రీ', 'U'), ('తు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గె', '|'), ('డి', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('క్క', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రిం', 'U'), ('తె', '|'), ('కా', 'U'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లె', '|'), ('డ', '|'), ('గూ', 'U'), ('డు', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('మ', '|'), ('ది', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('ది', '|'), ('యొ', 'U'), ('ప్పె', '|'), ('స', '|'), ('గు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('రీ', 'U'), ('తు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గె', '|'), ('డి', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('క్క', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('తి', '|'), ('వే', 'U'), ('ని', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రిం', 'U'), ('తె', '|'), ('కా', 'U'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లె', '|'), ('డ', '|'), ('గూ', 'U'), ('డు', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('లు', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చో', 'U'), ('మ', '|'), ('ది', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('ది', '|'), ('యొ', 'U'), ('ప్పె', '|'), ('స', '|'), ('గు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ద్జ్ఞ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('వి', '|'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('తో', 'U'), ('ష', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('వె', 'U'), ('ల్లు', '|'), ('వ', '|'), ('గా', 'U'), ('బ', '|'), ('యి', '|'), ('బా', 'U'), ('ఱి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గం', 'U'), ('టి', '|'), ('గా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ద్జ్ఞ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('వి', '|'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('తో', 'U'), ('ష', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('వె', 'U'), ('ల్లు', '|'), ('వ', '|'), ('గా', 'U'), ('బ', '|'), ('యి', '|'), ('బా', 'U'), ('ఱి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('గు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గం', 'U'), ('టి', '|'), ('గా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('డ', '|'), ('వె', '|'), ('డ', '|'), ('నిం', 'U'), ('క', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('పు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('తిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('బ', '|'), ('డి', '|'), ('వి', '|'), ('డి', '|'), ('రా', 'U'), ('డు', '|'), ('నే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('గ', '|'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('చుం', 'U'), ('చు', '|'), ('దు', 'U'), ('వ్వి', '|'), ('మై', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('దీ', 'U'), ('ఱ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('వె', '|'), ('డ', '|'), ('వె', '|'), ('డ', '|'), ('నిం', 'U'), ('క', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('పు', '|'), ('వే', 'U'), ('ళ', '|'), ('గ', '|'), ('తిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('బ', '|'), ('డి', '|'), ('వి', '|'), ('డి', '|'), ('రా', 'U'), ('డు', '|'), ('నే', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('గ', '|'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('చుం', 'U'), ('చు', '|'), ('దు', 'U'), ('వ్వి', '|'), ('మై', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('దీ', 'U'), ('ఱ', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('దే', 'U'), ('ట', '|'), ('నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('జా', 'U'), ('ది', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జే', 'U'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బల్', 'U'), ('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('ష', '|'), ('డ్ర', '|'), ('సా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ము', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('పె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('తో', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('దే', 'U'), ('ట', '|'), ('నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('జా', 'U'), ('ది', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జే', 'U'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బల్', 'U'), ('పె', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('ష', '|'), ('డ్ర', '|'), ('సా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ము', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('పె', '|'), ('ఱ', '|'), ('వా', 'U'), ('రి', '|'), ('తో', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('తా', 'U'), ('ను', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('పా', 'U'), ('ఠ', '|'), ('క', '|'), ('శా', 'U'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('ని', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('స', 'U'), ('త్య', '|'), ('మున్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('నీ', 'U'), ('కె', '|'), ('పు', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('తా', 'U'), ('ను', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('పా', 'U'), ('ఠ', '|'), ('క', '|'), ('శా', 'U'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('ని', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('స', 'U'), ('త్య', '|'), ('మున్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('నీ', 'U'), ('కె', '|'), ('పు', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('నే', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('కు', '|'), ('దె', 'U'), ('ల్వి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('మం', 'U'), ('చి', '|'), ('లే', 'U'), ('క', '|'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('నా', 'U'), ('సు', '|'), ('త', '|'), ('శి', '|'), ('ఖా', 'U'), ('మ', '|'), ('ణి', '|'), ('యం', 'U'), ('చు', '|'), ('బ', '|'), ('రా', 'U'), ('ప', '|'), ('రే', 'U'), ('శు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('ని', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('నే', 'U'), ('రి', '|'), ('చి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('కు', '|'), ('దె', 'U'), ('ల్వి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('మం', 'U'), ('చి', '|'), ('లే', 'U'), ('క', '|'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('నా', 'U'), ('సు', '|'), ('త', '|'), ('శి', '|'), ('ఖా', 'U'), ('మ', '|'), ('ణి', '|'), ('యం', 'U'), ('చు', '|'), ('బ', '|'), ('రా', 'U'), ('ప', '|'), ('రే', 'U'), ('శు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('ని', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('శీ', 'U'), ('లు', '|'), ('డ', '|'), ('యి', '|'), ('వి', '|'), ('శ్రు', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ది', '|'), ('శల్', 'U'), ('ఘ', '|'), ('టి', 'U'), ('ల్ల', '|'), ('మా', 'U'), ('ఘ', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('స', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('లు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('లం', 'U'), ('కృ', '|'), ('తు', 'U'), ('ల్మ', '|'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('బె', '|'), ('ను', '|'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('నె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('నా', 'U'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('వి', '|'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('శీ', 'U'), ('లు', '|'), ('డ', '|'), ('యి', '|'), ('వి', '|'), ('శ్రు', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ది', '|'), ('శ', 'U'), ('ల్ఘ', '|'), ('టి', 'U'), ('ల్ల', '|'), ('మా', 'U'), ('ఘ', '|'), ('ము', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('స', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('లు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('లం', 'U'), ('కృ', '|'), ('తు', 'U'), ('ల్మ', '|'), ('న', '|'), ('ము', '|'), ('న', 'U'), ('న్బె', '|'), ('ను', '|'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('నె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('నా', 'U'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('స్వ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('య్య', '|'), ('న', '|'), ('ము', 'U'), ('ప్ప', '|'), ('ది', '|'), ('రెం', 'U'), ('డు', '|'), ('రా', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ళ', '|'), ('మా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('మి', '|'), ('శ్ర', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('ఖం', 'U'), ('డ', '|'), ('జా', 'U'), ('తి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('లు', '|'), ('తే', 'U'), ('ట', '|'), ('ప', '|'), ('డ', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('పా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('డె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('న', '|'), ('ని', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('స్వ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('కృ', '|'), ('తు', 'U'), ('ల్కృ', '|'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('య్య', '|'), ('న', '|'), ('ము', 'U'), ('ప్ప', '|'), ('ది', '|'), ('రెం', 'U'), ('డు', '|'), ('రా', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('ళ', '|'), ('మా', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('మి', '|'), ('శ్ర', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('ఖం', 'U'), ('డ', '|'), ('జా', 'U'), ('తి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('లు', '|'), ('తే', 'U'), ('ట', '|'), ('ప', '|'), ('డ', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('పా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('డె', 'U'), ('న్న', '|'), ('డిం', 'U'), ('క', '|'), ('న', '|'), ('ని', '|'), ('వాం', 'U'), ('ఛి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('లు', '|'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('య', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('భ', 'U'), ('ర్త', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('స', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('పొ', '|'), ('లు', '|'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('త', '|'), ('గాం', 'U'), ('చి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('య', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('భ', 'U'), ('ర్త', '|'), ('తో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('స', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జె', '|'), ('లు', '|'), ('వు', '|'), ('గో', 'U'), ('మ', '|'), ('ల', '|'), ('తం', 'U'), ('ద', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('గా', 'U'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పై', 'U'), ('ద', '|'), ('లి', '|'), ('న', '|'), ('టు', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('సి', '|'), ('య', '|'), ('ల', '|'), ('దం', 'U'), ('ప', '|'), ('తు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ముల్', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గ', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జె', '|'), ('లు', '|'), ('వు', '|'), ('గో', 'U'), ('మ', '|'), ('ల', '|'), ('తం', 'U'), ('ద', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('గా', 'U'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పై', 'U'), ('ద', '|'), ('లి', '|'), ('న', '|'), ('టు', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('సి', '|'), ('య', '|'), ('ల', '|'), ('దం', 'U'), ('ప', '|'), ('తు', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ముల్', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గ', '|'), ('నే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('వ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('మం', 'U'), ('త్ర', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ర', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లన్', 'U'), ('బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('ప', '|'), ('బూ', 'U'), ('న్చి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('ప', '|'), ('యు', 'U'), ('క్తి', '|'), ('జే', 'U'), ('య', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('వ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('మం', 'U'), ('త్ర', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ర', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('ప', '|'), ('బూ', 'U'), ('న్చి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('ప', '|'), ('యు', 'U'), ('క్తి', '|'), ('జే', 'U'), ('య', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('రె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('జ', '|'), ('ని', '|'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నిం', 'U'), ('ట', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ల్మి', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('క్ర', '|'), ('మ', '|'), ('మి', '|'), ('గు', '|'), ('రొ', 'U'), ('త్త', '|'), ('నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('తా', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('నా', 'U'), ('భి', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టె', '|'), ('డి', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్జ', '|'), ('ని', '|'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నిం', 'U'), ('ట', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('తా', 'U'), ('ల్మి', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('క్ర', '|'), ('మ', '|'), ('మి', '|'), ('గు', '|'), ('రొ', 'U'), ('త్త', '|'), ('నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('తా', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('నా', 'U'), ('భి', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టె', '|'), ('డి', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లన్', 'U'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('రా', 'U'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లు', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('త', 'U'), ('త్క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('క', 'U'), ('ల్ప', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('యై', 'U'), ('స', '|'), ('దా', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('మ', '|'), ('మొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('మీ', 'U'), ('స', '|'), ('ర', '|'), ('మ', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', 'U'), ('న్స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('రా', 'U'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('లు', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('త', 'U'), ('త్క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('క', 'U'), ('ల్ప', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('యై', 'U'), ('స', '|'), ('దా', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('మ', '|'), ('మొ', '|'), ('సం', 'U'), ('గు', '|'), ('మం', 'U'), ('చు', '|'), ('మీ', 'U'), ('స', '|'), ('ర', '|'), ('మ', '|'), ('ల', '|'), ('రా', 'U'), ('ర', '|'), ('దీ', 'U'), ('వ', '|'), ('న', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('డై', 'U'), ('సు', '|'), ('జ', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('డై', 'U'), ('య', '|'), ('భి', '|'), ('మా', 'U'), ('ను', '|'), ('డై', 'U'), ('స', '|'), ('దా', 'U'), ('చా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('రు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('కు', '|'), ('డై', 'U'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డ', 'U'), ('య్యు', '|'), ('నే', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('వి', 'U'), ('ల్లె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('ను', 'U'), ('బ్బె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('డై', 'U'), ('సు', '|'), ('జ', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('డై', 'U'), ('య', '|'), ('భి', '|'), ('మా', 'U'), ('ను', '|'), ('డై', 'U'), ('స', '|'), ('దా', 'U'), ('చా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('రు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('కు', '|'), ('డై', 'U'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డ', 'U'), ('య్యు', '|'), ('నే', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('వి', 'U'), ('ల్లె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('మ', '|'), ('ది', '|'), ('ను', 'U'), ('బ్బె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('గాం', 'U'), ('చు', '|'), ('చో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్చి', '|'), ('సు', '|'), ('వ్ర', '|'), ('తు', '|'), ('డ', '|'), ('యి', '|'), ('స', 'U'), ('త్య', '|'), ('సం', 'U'), ('ధు', '|'), ('డ', '|'), ('యి', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('పూ', 'U'), ('జ', '|'), ('నీ', 'U'), ('యు', '|'), ('డై', 'U'), ('సు', '|'), ('తు', '|'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జొ', 'U'), ('క్కి', '|'), ('ప్ర', '|'), ('హ', 'U'), ('ర్ష', '|'), ('ణ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చ', '|'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('గాం', 'U'), ('చు', '|'), ('చో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్చి', '|'), ('సు', '|'), ('వ్ర', '|'), ('తు', '|'), ('డ', '|'), ('యి', '|'), ('స', 'U'), ('త్య', '|'), ('సం', 'U'), ('ధు', '|'), ('డ', '|'), ('యి', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('భాం', 'U'), ('త', '|'), ('ర', '|'), ('పూ', 'U'), ('జ', '|'), ('నీ', 'U'), ('యు', '|'), ('డై', 'U'), ('సు', '|'), ('తు', '|'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('జొ', 'U'), ('క్కి', '|'), ('ప్ర', '|'), ('హ', 'U'), ('ర్ష', '|'), ('ణ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('లో', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ల', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('సు', '|'), ('శీ', 'U'), ('లు', '|'), ('డు', '|'), ('భూ', 'U'), ('త', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రుం', 'U'), ('డు', '|'), ('వా', 'U'), ('చా', 'U'), ('లు', '|'), ('డ', '|'), ('న', 'U'), ('న్య', '|'), ('చా', 'U'), ('రు', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('ఖీ', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లు', '|'), ('డీ', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('ల', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('సు', '|'), ('శీ', 'U'), ('లు', '|'), ('డు', '|'), ('భూ', 'U'), ('త', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రుం', 'U'), ('డు', '|'), ('వా', 'U'), ('చా', 'U'), ('లు', '|'), ('డ', '|'), ('న', 'U'), ('న్య', '|'), ('చా', 'U'), ('రు', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('ఖీ', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లు', '|'), ('డీ', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('న', '|'), ('ధు', '|'), ('రా', 'U'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('క్రి', '|'), ('యా', 'U'), ('మా', 'U'), ('న', '|'), ('జ', '|'), ('నో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', '|'), ('ర', '|'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('డై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('శా', 'U'), ('ర', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('సూ', 'U'), ('ను', '|'), ('నిం', 'U'), ('దా', 'U'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('త', 'U'), ('న్వి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('దా', 'U'), ('న', '|'), ('ధు', '|'), ('రా', 'U'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('క్రి', '|'), ('యా', 'U'), ('మా', 'U'), ('న', '|'), ('జ', '|'), ('నో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', '|'), ('ర', '|'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నా', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('డై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('శా', 'U'), ('ర', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('సూ', 'U'), ('ను', '|'), ('నిం', 'U'), ('దా', 'U'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('లు', '|'), ('త', 'U'), ('న్వి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('ని', '|'), ('ర', '|'), ('తో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణు', '|'), ('డా', 'U'), ('శ్రి', '|'), ('తా', 'U'), ('వ', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('థ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('జీ', 'U'), ('వ', '|'), ('ను', '|'), ('డు', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధ', '|'), ('మాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మే', 'U'), ('టి', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('కు', 'U'), ('న్జ', '|'), ('వ', '|'), ('దా', 'U'), ('ట', '|'), ('డ', 'U'), ('న్న', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('ని', '|'), ('ర', '|'), ('తో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మృ', '|'), ('దు', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణు', '|'), ('డా', 'U'), ('శ్రి', '|'), ('తా', 'U'), ('వ', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('థ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('జీ', 'U'), ('వ', '|'), ('ను', '|'), ('డు', 'U'), ('త్త', '|'), ('మా', 'U'), ('ధ', '|'), ('మాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మే', 'U'), ('టి', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('కు', 'U'), ('న్జ', '|'), ('వ', '|'), ('దా', 'U'), ('ట', '|'), ('డ', 'U'), ('న్న', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లు', '|'), ('పు', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('కో', 'U'), ('డ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నొ', '|'), ('డం', 'U'), ('బ', '|'), ('డి', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చున్', 'U'), ('ద', '|'), ('నూ', 'U'), ('జు', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('బ్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మ', '|'), ('ఱి', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('కు', '|'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('లు', '|'), ('పు', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లి', '|'), ('కో', 'U'), ('డ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నొ', '|'), ('డం', 'U'), ('బ', '|'), ('డి', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', 'U'), ('న్ద', '|'), ('నూ', 'U'), ('జు', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('బ్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మ', '|'), ('ఱి', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('కు', '|'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('దే', 'U'), ('హ', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కు', '|'), ('గో', 'U'), ('డ', '|'), ('లి', '|'), ('తో', 'U'), ('ద', '|'), ('మ', '|'), ('యం', 'U'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('తి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('వ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('సూ', 'U'), ('య', '|'), ('న', 'U'), ('ర్మి', '|'), ('లి', '|'), ('మొ', '|'), ('దల్', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గ', '|'), ('ల', '|'), ('మే', 'U'), ('ల్ప', '|'), ('తి', '|'), ('వ్ర', '|'), ('తా', 'U'), ('త్వ', '|'), ('ము', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డు', '|'), ('సు', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('దే', 'U'), ('హ', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కు', '|'), ('గో', 'U'), ('డ', '|'), ('లి', '|'), ('తో', 'U'), ('ద', '|'), ('మ', '|'), ('యం', 'U'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('తి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('వ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('సూ', 'U'), ('య', '|'), ('న', 'U'), ('ర్మి', '|'), ('లి', '|'), ('మొ', '|'), ('ద', 'U'), ('ల్జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గ', '|'), ('ల', '|'), ('మే', 'U'), ('ల్ప', '|'), ('తి', '|'), ('వ్ర', '|'), ('తా', 'U'), ('త్వ', '|'), ('ము', '|'), ('లె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డు', '|'), ('సు', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('న్న', '|'), ('పా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ద', 'U'), ('న్పు', '|'), ('నొ', '|'), ('త', 'U'), ('న్ప', '|'), ('దొ', '|'), ('ప్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('ది', '|'), ('య', '|'), ('ము', '|'), ('త', 'U'), ('న్నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('మి', '|'), ('గో', 'U'), ('డ', '|'), ('లం', 'U'), ('త', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('ను', '|'), ('బ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('స', '|'), ('మా', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ము', 'U'), ('క్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('దా', 'U'), ('యి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('న్న', '|'), ('పా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ద', 'U'), ('న్పు', '|'), ('నొ', '|'), ('త', 'U'), ('న్ప', '|'), ('దొ', '|'), ('ప్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('సం', 'U'), ('ది', '|'), ('య', '|'), ('ము', '|'), ('త', 'U'), ('న్నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('మి', '|'), ('గో', 'U'), ('డ', '|'), ('లం', 'U'), ('త', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మి', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('ను', '|'), ('బ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('స', '|'), ('మా', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ము', 'U'), ('క్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('దా', 'U'), ('యి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('చూ', 'U'), ('త', '|'), ('ఫ', '|'), ('లో', 'U'), ('ష్ణ', '|'), ('నూ', 'U'), ('త్న', '|'), ('ఘృ', '|'), ('త', '|'), ('సూ', 'U'), ('ప', '|'), ('స', '|'), ('మం', 'U'), ('చ', '|'), ('ద', '|'), ('పూ', 'U'), ('ప', '|'), ('ష', '|'), ('డ్ర', '|'), ('సో', 'U'), ('పే', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టి', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('న', '|'), ('కో', 'U'), ('లి', '|'), ('ఘ', 'U'), ('ర్మ', '|'), ('సం', 'U'), ('జా', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('ది', '|'), ('గ', '|'), ('జా', 'U'), ('ఱు', '|'), ('ట', '|'), ('కై', 'U'), ('ద', '|'), ('య', '|'), ('దా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('తి', '|'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('చూ', 'U'), ('త', '|'), ('ఫ', '|'), ('లో', 'U'), ('ష్ణ', '|'), ('నూ', 'U'), ('త్న', '|'), ('ఘృ', '|'), ('త', '|'), ('సూ', 'U'), ('ప', '|'), ('స', '|'), ('మం', 'U'), ('చ', '|'), ('ద', '|'), ('పూ', 'U'), ('ప', '|'), ('ష', '|'), ('డ్ర', '|'), ('సో', 'U'), ('పే', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టి', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('న', '|'), ('కో', 'U'), ('లి', '|'), ('ఘ', 'U'), ('ర్మ', '|'), ('సం', 'U'), ('జా', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('ది', '|'), ('గ', '|'), ('జా', 'U'), ('ఱు', '|'), ('ట', '|'), ('కై', 'U'), ('ద', '|'), ('య', '|'), ('దా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('తి', '|'), ('కొ', '|'), ('సం', 'U'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('డు', '|'), ('కు', '|'), ('ను', '|'), ('గో', 'U'), ('డ', '|'), ('లొం', 'U'), ('టి', '|'), ('ప', '|'), ('డి', '|'), ('కొం', 'U'), ('కు', '|'), ('చు', '|'), ('సై', 'U'), ('గ', '|'), ('లు', '|'), ('నా', 'U'), ('ర', '|'), ('జం', 'U'), ('పు', '|'), ('టా', 'U'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('నె', '|'), ('ఱ', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ముల్', 'U'), ('గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('లా', 'U'), ('డు', '|'), ('మే', 'U'), ('ల్స', '|'), ('డి', '|'), ('స', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('లుం', 'U'), ('గు', '|'), ('స', '|'), ('గు', '|'), ('సల్', 'U'), ('జ', '|'), ('రి', '|'), ('గిం', 'U'), ('చు', '|'), ('ట', '|'), ('చూ', 'U'), ('చి', '|'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('మే', 'U'), ('లు', '|'), ('గ', '|'), ('తి', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కొ', '|'), ('డు', '|'), ('కు', '|'), ('ను', '|'), ('గో', 'U'), ('డ', '|'), ('లొం', 'U'), ('టి', '|'), ('ప', '|'), ('డి', '|'), ('కొం', 'U'), ('కు', '|'), ('చు', '|'), ('సై', 'U'), ('గ', '|'), ('లు', '|'), ('నా', 'U'), ('ర', '|'), ('జం', 'U'), ('పు', '|'), ('టా', 'U'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('నె', '|'), ('ఱ', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('ల్గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('లా', 'U'), ('డు', '|'), ('మే', 'U'), ('ల్స', '|'), ('డి', '|'), ('స', '|'), ('డి', '|'), ('స', 'U'), ('న్న', '|'), ('లుం', 'U'), ('గు', '|'), ('స', '|'), ('గు', '|'), ('స', 'U'), ('ల్జ', '|'), ('రి', '|'), ('గిం', 'U'), ('చు', '|'), ('ట', '|'), ('చూ', 'U'), ('చి', '|'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('మే', 'U'), ('లు', '|'), ('గ', '|'), ('తి', '|'), ('బొం', 'U'), ('గె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('పు', '|'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ట', '|'), ('కై', 'U'), ('ర', '|'), ('మే', 'U'), ('శు', '|'), ('నీ', 'U'), ('శు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('జొ', 'U'), ('క్క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('నె', 'U'), ('న్న', '|'), ('డే', 'U'), ('మ', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('నె', 'U'), ('త్తి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('దు', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చో', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గాం', 'U'), ('క్షి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('పు', '|'), ('త్రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ట', '|'), ('కై', 'U'), ('ర', '|'), ('మే', 'U'), ('శు', '|'), ('నీ', 'U'), ('శు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ను', '|'), ('జొ', 'U'), ('క్క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('నె', 'U'), ('న్న', '|'), ('డే', 'U'), ('మ', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('నె', 'U'), ('త్తి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డు', '|'), ('దు', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('చో', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గాం', 'U'), ('క్షి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కై', 'U'), ('త', '|'), ('న', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('మి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('చా', 'U'), ('టు', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లు', '|'), ('నో', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('కై', 'U'), ('త', '|'), ('న', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గో', 'U'), ('డ', '|'), ('లిం', 'U'), ('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('మి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('మీ', 'U'), ('దు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('చా', 'U'), ('టు', '|'), ('ను', '|'), ('నో', 'U'), ('ము', '|'), ('లు', '|'), ('నో', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('హా', 'U'), ('ని', '|'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ణీ', 'U'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('బా', 'U'), ('టె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('తి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('గా', 'U'), ('మ', '|'), ('తి', '|'), ('నెం', 'U'), ('తు', '|'), ('రెం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('జౌ', 'U'), ('క', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('నన్', 'U'), ('సు', '|'), ('మా', 'U'), ('వి', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ఘ', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('హా', 'U'), ('ని', '|'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('ణీ', 'U'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('బా', 'U'), ('టె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('తి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('గా', 'U'), ('మ', '|'), ('తి', '|'), ('నెం', 'U'), ('తు', '|'), ('రెం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('జౌ', 'U'), ('క', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', 'U'), ('న్సు', '|'), ('మా', 'U'), ('వి', '|'), ('ను', '|'), ('మ', '|'), ('ని', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ఘ', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('రు', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్తి', '|'), ('ప', '|'), ('థ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మం', 'U'), ('చు', '|'), ('ను', '|'), ('డి', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ధ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('రు', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('తి', '|'), ('జే', 'U'), ('యు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్తి', '|'), ('ప', '|'), ('థ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('మం', 'U'), ('చు', '|'), ('ను', '|'), ('డి', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('బ్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('వే', 'U'), ('ళ', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('గీ', 'U'), ('డు', '|'), ('ప', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('స', 'U'), ('డ్డ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('నిం', 'U'), ('ద', '|'), ('న', '|'), ('కె', '|'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('మ', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('బ్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('వే', 'U'), ('ళ', '|'), ('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('గీ', 'U'), ('డు', '|'), ('ప', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('స', 'U'), ('డ్డ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('నిం', 'U'), ('ద', '|'), ('న', '|'), ('కె', '|'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('తె', 'U'), ('ల్పు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('మ', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('ప', '|'), ('న', '|'), ('గ', 'U'), ('ణ్యు', '|'), ('డై', 'U'), ('బు', '|'), ('ధ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('చే', 'U'), ('య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('జె', '|'), ('లం', 'U'), ('గి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నుం', 'U'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('తం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('య', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రం', 'U'), ('చు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కిం', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('త', '|'), ('ల', '|'), ('ప', '|'), ('న', '|'), ('గ', 'U'), ('ణ్యు', '|'), ('డై', 'U'), ('బు', '|'), ('ధ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('చే', 'U'), ('య', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('జె', '|'), ('లం', 'U'), ('గి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నుం', 'U'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('తం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('య', '|'), ('భ', '|'), ('ళి', '|'), ('రే', 'U'), ('య', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రం', 'U'), ('చు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కిం', 'U'), ('దె', '|'), ('లు', '|'), ('పు', '|'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లు', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('శి', 'U'), ('ష్టు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('కొ', '|'), ('ను', '|'), ('న', 'U'), ('ట్లు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వా', 'U'), ('సి', 'U'), ('ష్ఠ', '|'), ('ము', '|'), ('ఖ', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('మ', 'U'), ('ర్మ', '|'), ('సా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('వి', '|'), ('ధుల్', 'U'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('శి', 'U'), ('ష్టు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('కొ', '|'), ('ను', '|'), ('న', 'U'), ('ట్లు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వా', 'U'), ('సి', 'U'), ('ష్ఠ', '|'), ('ము', '|'), ('ఖ', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('మ', 'U'), ('ర్మ', '|'), ('సా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('వి', '|'), ('ధు', 'U'), ('ల్ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('బు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ల', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('కో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('ర్భ', '|'), ('మౌ', 'U'), ('ట', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('బ్రే', 'U'), ('మ', '|'), ('గొం', 'U'), ('డా', 'U'), ('డ', '|'), ('సు', '|'), ('పు', '|'), ('త్రు', '|'), ('నిం', 'U'), ('బ', '|'), ('డ', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('శూ', 'U'), ('లి', '|'), ('పూ', 'U'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('మం', 'U'), ('ద', '|'), ('గా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', '|'), ('బు', 'U'), ('ష్ప', '|'), ('సు', '|'), ('గం', 'U'), ('ధి', '|'), ('ని', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నన్', 'U'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('కో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('ర్భ', '|'), ('మౌ', 'U'), ('ట', '|'), ('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', '|'), ('ది', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('బ్రే', 'U'), ('మ', '|'), ('గొం', 'U'), ('డా', 'U'), ('డ', '|'), ('సు', '|'), ('పు', '|'), ('త్రు', '|'), ('నిం', 'U'), ('బ', '|'), ('డ', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('పు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('శూ', 'U'), ('లి', '|'), ('పూ', 'U'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('మం', 'U'), ('ద', '|'), ('గా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', '|'), ('బు', 'U'), ('ష్ప', '|'), ('సు', '|'), ('గం', 'U'), ('ధి', '|'), ('ని', '|'), ('మీ', 'U'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('నన్', 'U'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వే', 'U'), ('డు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ను', '|'), ('మ', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్వ', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('య', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('వే', 'U'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('వా', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('మొ', '|'), ('ర', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('న', 'U'), ('ట్టి', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('మ', '|'), ('ను', '|'), ('మ', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('బి', 'U'), ('ల్వ', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ని', '|'), ('గో', 'U'), ('డ', '|'), ('లు', '|'), ('గ', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('వి', '|'), ('ని', '|'), ('య', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('వే', 'U'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('వా', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్మొ', '|'), ('ర', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చె', '|'), ('గ', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('న', 'U'), ('ట్టి', '|'), ('య', '|'), ('ల', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లి', '|'), ('మి', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('జ', '|'), ('యం', 'U'), ('బు', '|'), ('య', '|'), ('శ', 'U'), ('స్స', '|'), ('మృ', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('గో', 'U'), ('రు', '|'), ('చుం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('డ', 'U'), ('స్సి', '|'), ('న', '|'), ('శ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('మి', '|'), ('డిన్', 'U'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('ప', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('బు', '|'), ('త్ర', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('త', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('లి', '|'), ('మి', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('జ', '|'), ('యం', 'U'), ('బు', '|'), ('య', '|'), ('శ', 'U'), ('స్స', '|'), ('మృ', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('గో', 'U'), ('రు', '|'), ('చుం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('డ', 'U'), ('స్సి', '|'), ('న', '|'), ('శ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('మి', '|'), ('డిన్', 'U'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('ప', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('బు', '|'), ('త్ర', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('త', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('మా', 'U'), ('ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('ప', '|'), ('డు', '|'), ('వే', 'U'), ('వు', '|'), ('లిం', 'U'), ('త', '|'), ('నో', 'U'), ('ర', '|'), ('రు', '|'), ('చి', '|'), ('వి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('గా', 'U'), ('సి', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('రు', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('లో', 'U'), ('రు', '|'), ('వ', '|'), ('రు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('మా', 'U'), ('ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('కొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('ప', '|'), ('డు', '|'), ('వే', 'U'), ('వు', '|'), ('లిం', 'U'), ('త', '|'), ('నో', 'U'), ('ర', '|'), ('రు', '|'), ('చి', '|'), ('వి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('గా', 'U'), ('సి', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('రు', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('బా', 'U'), ('ధ', '|'), ('లో', 'U'), ('రు', '|'), ('వ', '|'), ('రు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('నా', 'U'), ('ణె', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ళ', '|'), ('నిం', 'U'), ('ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గూ', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('ర్చె', '|'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('లో', 'U'), ('క', '|'), ('మా', 'U'), ('త', '|'), ('య', '|'), ('న', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('టి', '|'), ('లో', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('నా', 'U'), ('ణె', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ళ', '|'), ('నిం', 'U'), ('ప', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గూ', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('ర్చె', '|'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('లో', 'U'), ('క', '|'), ('మా', 'U'), ('త', '|'), ('య', '|'), ('న', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('స', '|'), ('వ', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డు', '|'), ('బా', 'U'), ('ము', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యై', 'U'), ('యె', '|'), ('స', '|'), ('గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('స', '|'), ('టెం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('పు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('మ', '|'), ('స', '|'), ('లె', '|'), ('డు', '|'), ('గా', 'U'), ('న', '|'), ('నిం', 'U'), ('కి', '|'), ('ట', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('స', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రీ', 'U'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('ప్ర', '|'), ('స', '|'), ('వ', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డు', '|'), ('బా', 'U'), ('ము', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యై', 'U'), ('యె', '|'), ('స', '|'), ('గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('స', '|'), ('టెం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('పు', '|'), ('త్ర', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లో', 'U'), ('మ', '|'), ('స', '|'), ('లె', '|'), ('డు', '|'), ('గా', 'U'), ('న', '|'), ('నిం', 'U'), ('కి', '|'), ('ట', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('స', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రీ', 'U'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ని', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('నే', 'U'), ('రు', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('యుం', 'U'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('తి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('చో', 'U'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('బ్రే', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('హ', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('రీ', 'U'), ('తి', '|'), ('బ్రో', 'U'), ('చు', '|'), ('గు', '|'), ('ణ', '|'), ('ధ', 'U'), ('న్య', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('నే', 'U'), ('రు', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('యుం', 'U'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('తి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('చో', 'U'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('బ్రే', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('హ', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('కి', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('చా', 'U'), ('డ్పు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('రీ', 'U'), ('తి', '|'), ('బ్రో', 'U'), ('చు', '|'), ('గు', '|'), ('ణ', '|'), ('ధ', 'U'), ('న్య', '|'), ('ను', '|'), ('ద', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గ', '|'), ('లో', 'U'), ('కు', '|'), ('లి', '|'), ('ది', '|'), ('చి', '|'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('దిం', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('న', 'U'), ('ప్పా', 'U'), ('వ', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('పై', 'U'), ('గ', '|'), ('ల', '|'), ('ప్రే', 'U'), ('మ', '|'), ('దు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('చి', '|'), ('రా', 'U'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మా', 'U'), ('తృ', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('రి', '|'), ('చె', '|'), ('గా', 'U'), ('న', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గ', '|'), ('లో', 'U'), ('కు', '|'), ('లి', '|'), ('ది', '|'), ('చి', '|'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('దిం', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('న', 'U'), ('ప్పా', 'U'), ('వ', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('పై', 'U'), ('గ', '|'), ('ల', '|'), ('ప్రే', 'U'), ('మ', '|'), ('దు', '|'), ('రం', 'U'), ('గ', '|'), ('లిం', 'U'), ('చి', '|'), ('రా', 'U'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మా', 'U'), ('తృ', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('రి', '|'), ('చె', '|'), ('గా', 'U'), ('న', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('సి', '|'), ('రి', '|'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('బో', 'U'), ('ల', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రున్', 'U')]</t>
         </is>
       </c>
     </row>
